--- a/exp2/case03/report/motivation/satisfaction/MeasurementModel.xlsx
+++ b/exp2/case03/report/motivation/satisfaction/MeasurementModel.xlsx
@@ -3720,25 +3720,25 @@
         <v>31</v>
       </c>
       <c r="B27" t="n" s="271">
-        <v>0.899196335531396</v>
+        <v>0.9143665560951141</v>
       </c>
       <c r="C27" t="n" s="272">
-        <v>-0.4631832593519114</v>
+        <v>-0.38548050376167914</v>
       </c>
       <c r="D27" t="n" s="273">
-        <v>0.6432330146639513</v>
+        <v>0.6998814483025693</v>
       </c>
       <c r="E27" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F27" t="n" s="275">
-        <v>0.9062805885343339</v>
+        <v>0.9053985922223682</v>
       </c>
       <c r="G27" t="n" s="276">
-        <v>-0.46177040633699395</v>
+        <v>-0.4600322593113719</v>
       </c>
       <c r="H27" t="n" s="277">
-        <v>0.6442459751791203</v>
+        <v>0.6454930655652076</v>
       </c>
       <c r="I27" t="n" s="278">
         <v>1.0</v>
@@ -3749,25 +3749,25 @@
         <v>32</v>
       </c>
       <c r="B28" t="n" s="271">
-        <v>0.9103063872806312</v>
+        <v>0.9297830038139347</v>
       </c>
       <c r="C28" t="n" s="272">
-        <v>-0.41370906295848187</v>
+        <v>-0.32591243532199193</v>
       </c>
       <c r="D28" t="n" s="273">
-        <v>0.6790871889782666</v>
+        <v>0.7444906069276296</v>
       </c>
       <c r="E28" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F28" t="n" s="275">
-        <v>0.8811292128306613</v>
+        <v>0.8825654168453224</v>
       </c>
       <c r="G28" t="n" s="276">
-        <v>-0.5900058666456249</v>
+        <v>-0.5932699293941813</v>
       </c>
       <c r="H28" t="n" s="277">
-        <v>0.5551867163596365</v>
+        <v>0.5530005197654924</v>
       </c>
       <c r="I28" t="n" s="278">
         <v>1.0</v>
@@ -3778,25 +3778,25 @@
         <v>33</v>
       </c>
       <c r="B29" t="n" s="271">
-        <v>1.2152848447252744</v>
+        <v>1.2199538052276844</v>
       </c>
       <c r="C29" t="n" s="272">
-        <v>0.9764936607872641</v>
+        <v>0.9942582629750655</v>
       </c>
       <c r="D29" t="n" s="273">
-        <v>0.328819887789084</v>
+        <v>0.3200971495353988</v>
       </c>
       <c r="E29" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F29" t="n" s="275">
-        <v>1.1776099626093817</v>
+        <v>1.1965429293207064</v>
       </c>
       <c r="G29" t="n" s="276">
-        <v>0.8807117226666777</v>
+        <v>0.9710292123882648</v>
       </c>
       <c r="H29" t="n" s="277">
-        <v>0.37847387024533186</v>
+        <v>0.3315337318388599</v>
       </c>
       <c r="I29" t="n" s="278">
         <v>1.0</v>
@@ -3807,28 +3807,28 @@
         <v>56</v>
       </c>
       <c r="B30" t="n" s="271">
-        <v>0.6753397000459593</v>
+        <v>0.6661279607605148</v>
       </c>
       <c r="C30" t="n" s="272">
-        <v>4.219113175916044</v>
+        <v>4.193364709227977</v>
       </c>
       <c r="D30" t="n" s="273">
-        <v>2.4526513930200695E-5</v>
+        <v>2.7484702299865032E-5</v>
       </c>
       <c r="E30" t="n" s="274">
-        <v>1.7168559751140486E-4</v>
+        <v>1.9239291609905523E-4</v>
       </c>
       <c r="F30" t="n" s="275">
-        <v>1.3015745045769431</v>
+        <v>1.2779271078946048</v>
       </c>
       <c r="G30" t="n" s="276">
-        <v>1.484875380729606</v>
+        <v>1.2705016201148533</v>
       </c>
       <c r="H30" t="n" s="277">
-        <v>0.1375768387740876</v>
+        <v>0.2039060061236405</v>
       </c>
       <c r="I30" t="n" s="278">
-        <v>0.8361097182699466</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
@@ -3836,25 +3836,25 @@
         <v>57</v>
       </c>
       <c r="B31" t="n" s="271">
-        <v>0.9536771373916003</v>
+        <v>0.9261208092212111</v>
       </c>
       <c r="C31" t="n" s="272">
-        <v>0.31193671720509253</v>
+        <v>0.2888887513378472</v>
       </c>
       <c r="D31" t="n" s="273">
-        <v>0.7550886174577311</v>
+        <v>0.7726665120353275</v>
       </c>
       <c r="E31" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F31" t="n" s="275">
-        <v>1.17648094316683</v>
+        <v>1.1945890477260808</v>
       </c>
       <c r="G31" t="n" s="276">
-        <v>1.1730496716238443</v>
+        <v>1.2397878368369437</v>
       </c>
       <c r="H31" t="n" s="277">
-        <v>0.2407758871958267</v>
+        <v>0.21505387822901179</v>
       </c>
       <c r="I31" t="n" s="278">
         <v>1.0</v>
@@ -3865,25 +3865,25 @@
         <v>58</v>
       </c>
       <c r="B32" t="n" s="271">
-        <v>1.105627096484012</v>
+        <v>1.0956537175196626</v>
       </c>
       <c r="C32" t="n" s="272">
-        <v>0.3669975636691053</v>
+        <v>0.3481971068679941</v>
       </c>
       <c r="D32" t="n" s="273">
-        <v>0.7136208353150177</v>
+        <v>0.7276921603853803</v>
       </c>
       <c r="E32" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F32" t="n" s="275">
-        <v>1.1470519575786864</v>
+        <v>1.1764319307494837</v>
       </c>
       <c r="G32" t="n" s="276">
-        <v>1.0528414529394914</v>
+        <v>1.1889172926146756</v>
       </c>
       <c r="H32" t="n" s="277">
-        <v>0.29241366283712655</v>
+        <v>0.2344722146146512</v>
       </c>
       <c r="I32" t="n" s="278">
         <v>1.0</v>
@@ -3894,28 +3894,28 @@
         <v>59</v>
       </c>
       <c r="B33" t="n" s="271">
-        <v>1.071342923387545</v>
+        <v>1.0620943355573909</v>
       </c>
       <c r="C33" t="n" s="272">
-        <v>0.7976016718469598</v>
+        <v>0.7434523197074817</v>
       </c>
       <c r="D33" t="n" s="273">
-        <v>0.4251016805386313</v>
+        <v>0.4572078784008437</v>
       </c>
       <c r="E33" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F33" t="n" s="275">
-        <v>1.1721040837721255</v>
+        <v>1.1336127631720045</v>
       </c>
       <c r="G33" t="n" s="276">
-        <v>1.5571105297560557</v>
+        <v>1.2135632804551568</v>
       </c>
       <c r="H33" t="n" s="277">
-        <v>0.11944424546713524</v>
+        <v>0.2249145360725237</v>
       </c>
       <c r="I33" t="n" s="278">
-        <v>0.8361097182699466</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -3923,28 +3923,28 @@
         <v>60</v>
       </c>
       <c r="B34" t="n" s="271">
-        <v>1.0788156791166403</v>
+        <v>1.1219617504107902</v>
       </c>
       <c r="C34" t="n" s="272">
-        <v>11.627086742921957</v>
+        <v>10.811322605395688</v>
       </c>
       <c r="D34" t="n" s="273">
-        <v>3.0016766898161074E-31</v>
+        <v>3.04251418784387E-27</v>
       </c>
       <c r="E34" t="n" s="274">
-        <v>2.401341351852886E-30</v>
+        <v>2.434011350275096E-26</v>
       </c>
       <c r="F34" t="n" s="275">
-        <v>1.2871361733852722</v>
+        <v>1.2943857733471462</v>
       </c>
       <c r="G34" t="n" s="276">
-        <v>3.524759757870727</v>
+        <v>3.5270546860482503</v>
       </c>
       <c r="H34" t="n" s="277">
-        <v>4.2386701408063203E-4</v>
+        <v>4.202099629745468E-4</v>
       </c>
       <c r="I34" t="n" s="278">
-        <v>0.0038148031267256884</v>
+        <v>0.003781889666770921</v>
       </c>
     </row>
     <row r="35">
@@ -3952,10 +3952,10 @@
         <v>61</v>
       </c>
       <c r="B35" t="n" s="271">
-        <v>1.2037498026829374</v>
+        <v>1.0912993472865762</v>
       </c>
       <c r="C35" t="n" s="272">
-        <v>271.7779914960055</v>
+        <v>252.1255794158056</v>
       </c>
       <c r="D35" t="n" s="273">
         <v>0.0</v>
@@ -3964,16 +3964,16 @@
         <v>0.0</v>
       </c>
       <c r="F35" t="n" s="275">
-        <v>1.2216026987453013</v>
+        <v>1.2231359573806677</v>
       </c>
       <c r="G35" t="n" s="276">
-        <v>1.6580457209317099</v>
+        <v>1.6687845439838647</v>
       </c>
       <c r="H35" t="n" s="277">
-        <v>0.09730823834730096</v>
+        <v>0.09516008689256669</v>
       </c>
       <c r="I35" t="n" s="278">
-        <v>0.7784659067784077</v>
+        <v>0.7612806951405335</v>
       </c>
     </row>
     <row r="36">

--- a/exp2/case03/report/motivation/satisfaction/MeasurementModel.xlsx
+++ b/exp2/case03/report/motivation/satisfaction/MeasurementModel.xlsx
@@ -2215,16 +2215,16 @@
         <v>3.0</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>494.0720758066181</v>
+        <v>494.0722344227347</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>-247.03603790330905</v>
+        <v>-247.03611721136735</v>
       </c>
       <c r="D6" t="n" s="34">
         <v>51.0</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>0.8668131799198885</v>
+        <v>0.8668125968399576</v>
       </c>
       <c r="F6" t="n" s="36">
         <v>21.0</v>
@@ -2261,13 +2261,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="56">
-        <v>0.2081251892644878</v>
+        <v>0.20812292795467577</v>
       </c>
       <c r="B11" t="n" s="57">
-        <v>0.3121877838967317</v>
+        <v>0.31218439193201364</v>
       </c>
       <c r="C11" t="n" s="58">
-        <v>0.09164652006780194</v>
+        <v>0.09165194381571976</v>
       </c>
     </row>
     <row r="12">
@@ -2298,13 +2298,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="77">
-        <v>67.236227446886</v>
+        <v>67.24479696278458</v>
       </c>
       <c r="B16" t="n" s="78">
         <v>3.0</v>
       </c>
       <c r="C16" t="n" s="79">
-        <v>0.12849778897245678</v>
+        <v>0.12830603626218262</v>
       </c>
     </row>
     <row r="17">
@@ -2335,13 +2335,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="98">
-        <v>25.84370361010877</v>
+        <v>25.84477043222993</v>
       </c>
       <c r="B21" t="n" s="99">
-        <v>0.06771027512206729</v>
+        <v>0.0677093125164812</v>
       </c>
       <c r="C21" t="n" s="100">
-        <v>0.07756867247644027</v>
+        <v>0.07756838188280944</v>
       </c>
     </row>
     <row r="22">
@@ -2402,10 +2402,10 @@
         <v>49.0</v>
       </c>
       <c r="F26" t="n" s="124">
-        <v>25.084119233856043</v>
+        <v>25.085307615723742</v>
       </c>
       <c r="G26" t="n" s="125">
-        <v>0.9982019662227185</v>
+        <v>0.9982008737227441</v>
       </c>
       <c r="H26" t="n" s="126">
         <v>1.0</v>
@@ -2428,10 +2428,10 @@
         <v>49.0</v>
       </c>
       <c r="F27" t="n" s="124">
-        <v>30.624362478967218</v>
+        <v>30.624638951328112</v>
       </c>
       <c r="G27" t="n" s="125">
-        <v>0.9815955611437354</v>
+        <v>0.9815938286382148</v>
       </c>
       <c r="H27" t="n" s="126">
         <v>1.0</v>
@@ -2454,13 +2454,13 @@
         <v>49.0</v>
       </c>
       <c r="F28" t="n" s="124">
-        <v>67.236227446886</v>
+        <v>67.24479696278458</v>
       </c>
       <c r="G28" t="n" s="125">
-        <v>0.04283259632415226</v>
+        <v>0.042768678754060874</v>
       </c>
       <c r="H28" t="n" s="126">
-        <v>0.12849778897245678</v>
+        <v>0.12830603626218262</v>
       </c>
     </row>
     <row r="29">
@@ -2491,563 +2491,563 @@
     </row>
     <row r="33">
       <c r="A33" t="n" s="145">
-        <v>0.3686256716873917</v>
+        <v>0.3686709463358122</v>
       </c>
       <c r="B33" t="n" s="146">
-        <v>0.46752566918179017</v>
+        <v>0.46757161847277384</v>
       </c>
       <c r="C33" t="n" s="147">
-        <v>0.34683833206112524</v>
+        <v>0.34684742080404884</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n" s="145">
-        <v>-0.38821963037430773</v>
+        <v>-0.3881784006806859</v>
       </c>
       <c r="B34" t="n" s="146">
-        <v>-0.13880818723370503</v>
+        <v>-0.13877591837661107</v>
       </c>
       <c r="C34" t="n" s="147">
-        <v>0.5487099525479868</v>
+        <v>0.5486477603592412</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="145">
-        <v>0.7251853196790172</v>
+        <v>0.7252388048014122</v>
       </c>
       <c r="B35" t="n" s="146">
-        <v>0.9828963867512766</v>
+        <v>0.9829318397995719</v>
       </c>
       <c r="C35" t="n" s="147">
-        <v>-1.3387442501758233</v>
+        <v>-1.3387932435239147</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="145">
-        <v>1.0204503819817674</v>
+        <v>1.0205004143406224</v>
       </c>
       <c r="B36" t="n" s="146">
-        <v>-0.7215637937441297</v>
+        <v>-0.7215298462618565</v>
       </c>
       <c r="C36" t="n" s="147">
-        <v>-0.044574037232307795</v>
+        <v>-0.04462891693471516</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="145">
-        <v>1.0204503819817683</v>
+        <v>1.0205004143406224</v>
       </c>
       <c r="B37" t="n" s="146">
-        <v>0.2784362062558712</v>
+        <v>0.27847015373814354</v>
       </c>
       <c r="C37" t="n" s="147">
-        <v>-1.0445740372323078</v>
+        <v>-1.0446289169347152</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="145">
-        <v>0.43314575841660474</v>
+        <v>0.43320117986407514</v>
       </c>
       <c r="B38" t="n" s="146">
-        <v>0.6816107578272055</v>
+        <v>0.6816480125261988</v>
       </c>
       <c r="C38" t="n" s="147">
-        <v>-0.6271586986371736</v>
+        <v>-0.6271995231680076</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="145">
-        <v>-0.09463334243287758</v>
+        <v>-0.094595739466107</v>
       </c>
       <c r="B39" t="n" s="146">
-        <v>0.15507746740076822</v>
+        <v>0.1551097426203989</v>
       </c>
       <c r="C39" t="n" s="147">
-        <v>-0.15705367501644663</v>
+        <v>-0.1571191941444976</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="145">
-        <v>-1.0946333424328767</v>
+        <v>-1.094595739466106</v>
       </c>
       <c r="B40" t="n" s="146">
-        <v>0.15507746740076822</v>
+        <v>0.15510974262039978</v>
       </c>
       <c r="C40" t="n" s="147">
-        <v>0.8429463249835534</v>
+        <v>0.8428808058555024</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="145">
-        <v>-1.0187439105868092</v>
+        <v>-1.0187201794679188</v>
       </c>
       <c r="B41" t="n" s="146">
-        <v>-0.811906825823393</v>
+        <v>-0.8118852266286845</v>
       </c>
       <c r="C41" t="n" s="147">
-        <v>0.9248306815344591</v>
+        <v>0.9247586884060164</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="145">
-        <v>-0.9184331447594904</v>
+        <v>-0.9183991380142871</v>
       </c>
       <c r="B42" t="n" s="146">
-        <v>-0.6432313431811649</v>
+        <v>-0.6431986741953133</v>
       </c>
       <c r="C42" t="n" s="147">
-        <v>1.012362255088941</v>
+        <v>1.0122803259215885</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="145">
-        <v>1.3165554879698034</v>
+        <v>1.3166011587916682</v>
       </c>
       <c r="B43" t="n" s="146">
-        <v>-0.429891034603731</v>
+        <v>-0.42985819124669433</v>
       </c>
       <c r="C43" t="n" s="147">
-        <v>-0.747795342078259</v>
+        <v>-0.747854317512739</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="145">
-        <v>-0.6834445120301966</v>
+        <v>-0.6833988412083309</v>
       </c>
       <c r="B44" t="n" s="146">
-        <v>0.5701089653962699</v>
+        <v>0.5701418087533057</v>
       </c>
       <c r="C44" t="n" s="147">
-        <v>0.25220465792174274</v>
+        <v>0.252145682487261</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="145">
-        <v>0.8699613132004709</v>
+        <v>0.870015378858211</v>
       </c>
       <c r="B45" t="n" s="146">
-        <v>1.0642380725364768</v>
+        <v>1.0642801550250267</v>
       </c>
       <c r="C45" t="n" s="147">
-        <v>-1.17486699102892</v>
+        <v>-1.174884630378564</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="145">
-        <v>-0.21547156569628934</v>
+        <v>-0.2154372391548418</v>
       </c>
       <c r="B46" t="n" s="146">
-        <v>0.05822957595146194</v>
+        <v>0.0582630046946111</v>
       </c>
       <c r="C46" t="n" s="147">
-        <v>-0.28316386538124316</v>
+        <v>-0.28324266360400374</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="145">
-        <v>0.08156685524050955</v>
+        <v>0.08160086198571292</v>
       </c>
       <c r="B47" t="n" s="146">
-        <v>-0.6432313431811649</v>
+        <v>-0.6431986741953137</v>
       </c>
       <c r="C47" t="n" s="147">
-        <v>0.012362255088941065</v>
+        <v>0.012280325921588009</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="145">
-        <v>-0.8022603493194147</v>
+        <v>-0.8022249707052249</v>
       </c>
       <c r="B48" t="n" s="146">
-        <v>0.45356204431092584</v>
+        <v>0.45359478310972356</v>
       </c>
       <c r="C48" t="n" s="147">
-        <v>0.13456523772620255</v>
+        <v>0.13449567321225908</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="145">
-        <v>-0.38821963037430773</v>
+        <v>-0.3881784006806859</v>
       </c>
       <c r="B49" t="n" s="146">
-        <v>-0.13880818723370503</v>
+        <v>-0.13877591837661107</v>
       </c>
       <c r="C49" t="n" s="147">
-        <v>0.5487099525479868</v>
+        <v>0.5486477603592412</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="145">
-        <v>0.6072245345112313</v>
+        <v>0.6072753174760877</v>
       </c>
       <c r="B50" t="n" s="146">
-        <v>-0.2428182001500776</v>
+        <v>-0.24277337475565552</v>
       </c>
       <c r="C50" t="n" s="147">
-        <v>0.5734600332022035</v>
+        <v>0.5734561849703521</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="145">
-        <v>-0.726591817529771</v>
+        <v>-0.7265756975325905</v>
       </c>
       <c r="B51" t="n" s="146">
-        <v>0.4326923702372114</v>
+        <v>0.4327079012768096</v>
       </c>
       <c r="C51" t="n" s="147">
-        <v>-0.7713100982123979</v>
+        <v>-0.7713705328863174</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="145">
-        <v>0.49026338467479746</v>
+        <v>0.4902978864842997</v>
       </c>
       <c r="B52" t="n" s="146">
-        <v>0.7557167284385438</v>
+        <v>0.7557500286697554</v>
       </c>
       <c r="C52" t="n" s="147">
-        <v>-1.5749743403465177</v>
+        <v>-1.575048591903518</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="145">
-        <v>0.6072245345112304</v>
+        <v>0.6072753174760868</v>
       </c>
       <c r="B53" t="n" s="146">
-        <v>0.7571817998499215</v>
+        <v>0.7572266252443445</v>
       </c>
       <c r="C53" t="n" s="147">
-        <v>-0.4265399667977965</v>
+        <v>-0.426543815029647</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="145">
-        <v>1.3165554879698034</v>
+        <v>1.3166011587916682</v>
       </c>
       <c r="B54" t="n" s="146">
-        <v>-0.429891034603731</v>
+        <v>-0.42985819124669433</v>
       </c>
       <c r="C54" t="n" s="147">
-        <v>-0.747795342078259</v>
+        <v>-0.747854317512739</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="145">
-        <v>-0.8530320929723985</v>
+        <v>-0.8529764872790437</v>
       </c>
       <c r="B55" t="n" s="146">
-        <v>0.37453760179951967</v>
+        <v>0.37457703600979286</v>
       </c>
       <c r="C55" t="n" s="147">
-        <v>1.0930932429878792</v>
+        <v>1.0930629738410973</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="145">
-        <v>0.43314575841660297</v>
+        <v>0.433201179864076</v>
       </c>
       <c r="B56" t="n" s="146">
-        <v>-0.3183892421727963</v>
+        <v>-0.3183519874738012</v>
       </c>
       <c r="C56" t="n" s="147">
-        <v>0.37284130136282556</v>
+        <v>0.37280047683199324</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="145">
-        <v>0.020450381981768295</v>
+        <v>0.020500414340621553</v>
       </c>
       <c r="B57" t="n" s="146">
-        <v>0.2784362062558712</v>
+        <v>0.27847015373814266</v>
       </c>
       <c r="C57" t="n" s="147">
-        <v>-0.04457403723230691</v>
+        <v>-0.044628916934716045</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="145">
-        <v>-1.1300386867995282</v>
+        <v>-1.129984621141788</v>
       </c>
       <c r="B58" t="n" s="146">
-        <v>1.064238072536475</v>
+        <v>1.0642801550250285</v>
       </c>
       <c r="C58" t="n" s="147">
-        <v>0.82513300897108</v>
+        <v>0.825115369621436</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="145">
-        <v>-0.6188553752952659</v>
+        <v>-0.618822754448014</v>
       </c>
       <c r="B59" t="n" s="146">
-        <v>-1.3531024306228208</v>
+        <v>-1.353071814690506</v>
       </c>
       <c r="C59" t="n" s="147">
-        <v>1.312702839588273</v>
+        <v>1.3126204493547302</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="145">
-        <v>-0.2748146803209828</v>
+        <v>-0.274761195198586</v>
       </c>
       <c r="B60" t="n" s="146">
-        <v>-0.017103613248723448</v>
+        <v>-0.01706816020042723</v>
       </c>
       <c r="C60" t="n" s="147">
-        <v>0.6612557498241758</v>
+        <v>0.661206756476088</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="145">
-        <v>0.6117803696256949</v>
+        <v>0.611821599319315</v>
       </c>
       <c r="B61" t="n" s="146">
-        <v>0.8611918127662985</v>
+        <v>0.861224081623388</v>
       </c>
       <c r="C61" t="n" s="147">
-        <v>-1.4512900474520114</v>
+        <v>-1.4513522396407597</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="145">
-        <v>-0.6188553752952659</v>
+        <v>-0.618822754448014</v>
       </c>
       <c r="B62" t="n" s="146">
-        <v>-0.35310243062282076</v>
+        <v>-0.3530718146905061</v>
       </c>
       <c r="C62" t="n" s="147">
-        <v>0.31270283958827294</v>
+        <v>0.3126204493547302</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="145">
-        <v>-0.4533790465231684</v>
+        <v>-0.45337010745097905</v>
       </c>
       <c r="B63" t="n" s="146">
-        <v>-0.34802041771196035</v>
+        <v>-0.34800865592971286</v>
       </c>
       <c r="C63" t="n" s="147">
-        <v>-0.48370937875832687</v>
+        <v>-0.48375341593447807</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="145">
-        <v>1.1469679070276015</v>
+        <v>1.1470235127209563</v>
       </c>
       <c r="B64" t="n" s="146">
-        <v>-1.6254623982004803</v>
+        <v>-1.625422963990208</v>
       </c>
       <c r="C64" t="n" s="147">
-        <v>1.0930932429878792</v>
+        <v>1.0930629738410982</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="145">
-        <v>-0.8022603493194147</v>
+        <v>-0.8022249707052249</v>
       </c>
       <c r="B65" t="n" s="146">
-        <v>0.45356204431092584</v>
+        <v>0.45359478310972356</v>
       </c>
       <c r="C65" t="n" s="147">
-        <v>0.13456523772620255</v>
+        <v>0.13449567321225908</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="145">
-        <v>0.38114462470473365</v>
+        <v>0.38117724555198595</v>
       </c>
       <c r="B66" t="n" s="146">
-        <v>0.6468975693771792</v>
+        <v>0.6469281853094939</v>
       </c>
       <c r="C66" t="n" s="147">
-        <v>-1.687297160411728</v>
+        <v>-1.6873795506452698</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="145">
-        <v>-0.2748146803209828</v>
+        <v>-0.274761195198586</v>
       </c>
       <c r="B67" t="n" s="146">
-        <v>-0.017103613248723448</v>
+        <v>-0.01706816020042723</v>
       </c>
       <c r="C67" t="n" s="147">
-        <v>0.6612557498241758</v>
+        <v>0.661206756476088</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n" s="145">
-        <v>-0.09463334243287758</v>
+        <v>-0.094595739466107</v>
       </c>
       <c r="B68" t="n" s="146">
-        <v>0.15507746740076822</v>
+        <v>0.1551097426203989</v>
       </c>
       <c r="C68" t="n" s="147">
-        <v>-0.15705367501644663</v>
+        <v>-0.1571191941444976</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n" s="145">
-        <v>0.4902633846747957</v>
+        <v>0.49029788648430017</v>
       </c>
       <c r="B69" t="n" s="146">
-        <v>-0.24428327156145713</v>
+        <v>-0.24424997133024462</v>
       </c>
       <c r="C69" t="n" s="147">
-        <v>-0.5749743403465182</v>
+        <v>-0.5750485919035175</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="145">
-        <v>-0.4533790465231684</v>
+        <v>-0.45337010745097905</v>
       </c>
       <c r="B70" t="n" s="146">
-        <v>-0.34802041771196035</v>
+        <v>-0.34800865592971286</v>
       </c>
       <c r="C70" t="n" s="147">
-        <v>-0.48370937875832687</v>
+        <v>-0.48375341593447807</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="145">
-        <v>1.1469679070276015</v>
+        <v>1.1470235127209563</v>
       </c>
       <c r="B71" t="n" s="146">
-        <v>-1.6254623982004803</v>
+        <v>-1.625422963990208</v>
       </c>
       <c r="C71" t="n" s="147">
-        <v>1.0930932429878792</v>
+        <v>1.0930629738410982</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="145">
-        <v>-0.09463334243287758</v>
+        <v>-0.09459573946610611</v>
       </c>
       <c r="B72" t="n" s="146">
-        <v>-0.8449225325992318</v>
+        <v>-0.8448902573796007</v>
       </c>
       <c r="C72" t="n" s="147">
-        <v>0.8429463249835543</v>
+        <v>0.8428808058555015</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="145">
-        <v>-0.38821963037430773</v>
+        <v>-0.3881784006806859</v>
       </c>
       <c r="B73" t="n" s="146">
-        <v>0.8611918127662976</v>
+        <v>0.861224081623388</v>
       </c>
       <c r="C73" t="n" s="147">
-        <v>-0.4512900474520132</v>
+        <v>-0.4513522396407579</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="145">
-        <v>0.020450381981769183</v>
+        <v>0.020500414340620665</v>
       </c>
       <c r="B74" t="n" s="146">
-        <v>-0.7215637937441288</v>
+        <v>-0.7215298462618582</v>
       </c>
       <c r="C74" t="n" s="147">
-        <v>0.9554259627676931</v>
+        <v>0.9553710830652848</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n" s="145">
-        <v>0.08156685524050955</v>
+        <v>0.08160086198571292</v>
       </c>
       <c r="B75" t="n" s="146">
-        <v>-0.6432313431811649</v>
+        <v>-0.6431986741953137</v>
       </c>
       <c r="C75" t="n" s="147">
-        <v>0.012362255088941065</v>
+        <v>0.012280325921588009</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="145">
-        <v>0.14696790702760154</v>
+        <v>0.14702351272095715</v>
       </c>
       <c r="B76" t="n" s="146">
-        <v>0.3745376017995188</v>
+        <v>0.37457703600979375</v>
       </c>
       <c r="C76" t="n" s="147">
-        <v>0.09309324298787924</v>
+        <v>0.09306297384109818</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n" s="145">
-        <v>-0.09463334243287758</v>
+        <v>-0.094595739466107</v>
       </c>
       <c r="B77" t="n" s="146">
-        <v>0.15507746740076822</v>
+        <v>0.1551097426203989</v>
       </c>
       <c r="C77" t="n" s="147">
-        <v>-0.15705367501644663</v>
+        <v>-0.1571191941444976</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n" s="145">
-        <v>-0.09463334243287758</v>
+        <v>-0.09459573946610611</v>
       </c>
       <c r="B78" t="n" s="146">
-        <v>2.155077467400769</v>
+        <v>2.155109742620399</v>
       </c>
       <c r="C78" t="n" s="147">
-        <v>-2.1570536750164457</v>
+        <v>-2.1571191941444985</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n" s="145">
-        <v>1.7251853196790163</v>
+        <v>1.7252388048014131</v>
       </c>
       <c r="B79" t="n" s="146">
-        <v>-0.017103613248723448</v>
+        <v>-0.017068160200428117</v>
       </c>
       <c r="C79" t="n" s="147">
-        <v>-1.338744250175825</v>
+        <v>-1.3387932435239138</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="145">
-        <v>0.43314575841660297</v>
+        <v>0.433201179864076</v>
       </c>
       <c r="B80" t="n" s="146">
-        <v>-0.3183892421727963</v>
+        <v>-0.3183519874738012</v>
       </c>
       <c r="C80" t="n" s="147">
-        <v>0.37284130136282556</v>
+        <v>0.37280047683199324</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="145">
-        <v>-1.0187439105868088</v>
+        <v>-1.0187201794679188</v>
       </c>
       <c r="B81" t="n" s="146">
-        <v>0.18809317417660787</v>
+        <v>0.18811477337131488</v>
       </c>
       <c r="C81" t="n" s="147">
-        <v>-0.07516931846554087</v>
+        <v>-0.0752413115939845</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="145">
-        <v>-1.388219630374306</v>
+        <v>-1.3881784006806859</v>
       </c>
       <c r="B82" t="n" s="146">
-        <v>-0.13880818723370325</v>
+        <v>-0.13877591837661196</v>
       </c>
       <c r="C82" t="n" s="147">
-        <v>1.5487099525479877</v>
+        <v>1.5486477603592403</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n" s="145">
-        <v>-0.509736615325203</v>
+        <v>-0.5097021135157003</v>
       </c>
       <c r="B83" t="n" s="146">
-        <v>-1.2442832715614567</v>
+        <v>-1.2442499713302442</v>
       </c>
       <c r="C83" t="n" s="147">
-        <v>1.4250256596534823</v>
+        <v>1.424951408096482</v>
       </c>
     </row>
     <row r="84">
@@ -3352,28 +3352,28 @@
         <v>4.313725490196078</v>
       </c>
       <c r="D6" t="n" s="193">
-        <v>-1.8120218883933492</v>
+        <v>-1.8105445574445038</v>
       </c>
       <c r="E6" t="n" s="194">
-        <v>-10.781626048147665</v>
+        <v>-10.77199750496377</v>
       </c>
       <c r="F6" t="n" s="195">
-        <v>-13.114093375505382</v>
+        <v>-13.104281068741024</v>
       </c>
       <c r="G6" t="n" s="196">
-        <v>-14.979768591546332</v>
+        <v>-14.9698941807783</v>
       </c>
       <c r="H6" t="n" s="197">
-        <v>-16.2825714681657</v>
+        <v>-16.27261757408126</v>
       </c>
       <c r="I6" t="n" s="198">
-        <v>-15.719390321407024</v>
+        <v>-15.709390241202534</v>
       </c>
       <c r="J6" t="n" s="199">
-        <v>-14.654422838242668</v>
+        <v>-14.644392853778132</v>
       </c>
       <c r="K6" t="n" s="200">
-        <v>-12.684153218753444</v>
+        <v>-12.673811902111527</v>
       </c>
       <c r="L6" t="n" s="201">
         <v>1.0</v>
@@ -3408,28 +3408,28 @@
         <v>4.078431372549019</v>
       </c>
       <c r="D7" t="n" s="193">
-        <v>-1.5400010072323427</v>
+        <v>-1.538531639489966</v>
       </c>
       <c r="E7" t="n" s="194">
-        <v>-10.509605166986658</v>
+        <v>-10.499984587009232</v>
       </c>
       <c r="F7" t="n" s="195">
-        <v>-12.570051613183368</v>
+        <v>-12.560255232831947</v>
       </c>
       <c r="G7" t="n" s="196">
-        <v>-14.163705948063312</v>
+        <v>-14.153855426914689</v>
       </c>
       <c r="H7" t="n" s="197">
-        <v>-15.194487943521677</v>
+        <v>-15.18456590226311</v>
       </c>
       <c r="I7" t="n" s="198">
-        <v>-14.359285915601992</v>
+        <v>-14.349325651429847</v>
       </c>
       <c r="J7" t="n" s="199">
-        <v>-13.02229755127663</v>
+        <v>-13.012315346050904</v>
       </c>
       <c r="K7" t="n" s="200">
-        <v>-10.780007050626399</v>
+        <v>-10.769721476429762</v>
       </c>
       <c r="L7" t="n" s="201">
         <v>1.0</v>
@@ -3464,28 +3464,28 @@
         <v>4.372549019607843</v>
       </c>
       <c r="D8" t="n" s="193">
-        <v>-1.8803124358392207</v>
+        <v>-1.8789478933102568</v>
       </c>
       <c r="E8" t="n" s="194">
-        <v>-10.849916595593536</v>
+        <v>-10.840400840829524</v>
       </c>
       <c r="F8" t="n" s="195">
-        <v>-13.250674470397124</v>
+        <v>-13.24108774047253</v>
       </c>
       <c r="G8" t="n" s="196">
-        <v>-15.184640233883947</v>
+        <v>-15.17510418837556</v>
       </c>
       <c r="H8" t="n" s="197">
-        <v>-16.55573365794919</v>
+        <v>-16.54623091754427</v>
       </c>
       <c r="I8" t="n" s="198">
-        <v>-16.06084305863638</v>
+        <v>-16.051406920531303</v>
       </c>
       <c r="J8" t="n" s="199">
-        <v>-15.064166122917898</v>
+        <v>-15.054812868972654</v>
       </c>
       <c r="K8" t="n" s="200">
-        <v>-13.162187050874545</v>
+        <v>-13.152635253171798</v>
       </c>
       <c r="L8" t="n" s="201">
         <v>1.0</v>
@@ -3553,7 +3553,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="n" s="226">
-        <v>-10.782806396484375</v>
+        <v>-10.773101806640625</v>
       </c>
       <c r="C13" t="n" s="227">
         <v>-2.747589111328125</v>
@@ -3571,7 +3571,7 @@
         <v>1.164093017578125</v>
       </c>
       <c r="H13" t="n" s="232">
-        <v>2.273529052734375</v>
+        <v>2.273712158203125</v>
       </c>
     </row>
     <row r="14">
@@ -3579,16 +3579,16 @@
         <v>32</v>
       </c>
       <c r="B14" t="n" s="226">
-        <v>-10.510711669921875</v>
+        <v>-10.501007080078125</v>
       </c>
       <c r="C14" t="n" s="227">
-        <v>-2.475677490234375</v>
+        <v>-2.475494384765625</v>
       </c>
       <c r="D14" t="n" s="228">
         <v>-1.592010498046875</v>
       </c>
       <c r="E14" t="n" s="229">
-        <v>-0.782318115234375</v>
+        <v>-0.782501220703125</v>
       </c>
       <c r="F14" t="n" s="230">
         <v>0.588592529296875</v>
@@ -3597,7 +3597,7 @@
         <v>1.436187744140625</v>
       </c>
       <c r="H14" t="n" s="232">
-        <v>2.545623779296875</v>
+        <v>2.545806884765625</v>
       </c>
     </row>
     <row r="15">
@@ -3605,13 +3605,13 @@
         <v>33</v>
       </c>
       <c r="B15" t="n" s="226">
-        <v>-10.851287841796875</v>
+        <v>-10.841400146484375</v>
       </c>
       <c r="C15" t="n" s="227">
-        <v>-2.816070556640625</v>
+        <v>-2.815887451171875</v>
       </c>
       <c r="D15" t="n" s="228">
-        <v>-1.932586669921875</v>
+        <v>-1.932403564453125</v>
       </c>
       <c r="E15" t="n" s="229">
         <v>-1.122894287109375</v>
@@ -3620,10 +3620,10 @@
         <v>0.248199462890625</v>
       </c>
       <c r="G15" t="n" s="231">
-        <v>1.095611572265625</v>
+        <v>1.095794677734375</v>
       </c>
       <c r="H15" t="n" s="232">
-        <v>2.205047607421875</v>
+        <v>2.205230712890625</v>
       </c>
     </row>
     <row r="16">
@@ -3652,7 +3652,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="n" s="251">
-        <v>-0.9194801551512094</v>
+        <v>-0.9194032185211158</v>
       </c>
     </row>
     <row r="21">
@@ -3660,7 +3660,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="n" s="251">
-        <v>-0.6551854450717415</v>
+        <v>-0.6551223780210514</v>
       </c>
     </row>
     <row r="22">
@@ -3668,7 +3668,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="n" s="251">
-        <v>-0.9893007633229443</v>
+        <v>-0.9893388012501436</v>
       </c>
     </row>
     <row r="23">
@@ -3720,25 +3720,25 @@
         <v>31</v>
       </c>
       <c r="B27" t="n" s="271">
-        <v>0.9143665560951141</v>
+        <v>0.9277021178240007</v>
       </c>
       <c r="C27" t="n" s="272">
-        <v>-0.38548050376167914</v>
+        <v>-0.3262822252907543</v>
       </c>
       <c r="D27" t="n" s="273">
-        <v>0.6998814483025693</v>
+        <v>0.7442108351753474</v>
       </c>
       <c r="E27" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F27" t="n" s="275">
-        <v>0.9053985922223682</v>
+        <v>0.9118771324046507</v>
       </c>
       <c r="G27" t="n" s="276">
-        <v>-0.4600322593113719</v>
+        <v>-0.43323187555308557</v>
       </c>
       <c r="H27" t="n" s="277">
-        <v>0.6454930655652076</v>
+        <v>0.6648463239042068</v>
       </c>
       <c r="I27" t="n" s="278">
         <v>1.0</v>
@@ -3749,25 +3749,25 @@
         <v>32</v>
       </c>
       <c r="B28" t="n" s="271">
-        <v>0.9297830038139347</v>
+        <v>0.9397307241497138</v>
       </c>
       <c r="C28" t="n" s="272">
-        <v>-0.32591243532199193</v>
+        <v>-0.2793187988338228</v>
       </c>
       <c r="D28" t="n" s="273">
-        <v>0.7444906069276296</v>
+        <v>0.780000180800177</v>
       </c>
       <c r="E28" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F28" t="n" s="275">
-        <v>0.8825654168453224</v>
+        <v>0.898538467233518</v>
       </c>
       <c r="G28" t="n" s="276">
-        <v>-0.5932699293941813</v>
+        <v>-0.5074555186746593</v>
       </c>
       <c r="H28" t="n" s="277">
-        <v>0.5530005197654924</v>
+        <v>0.6118352392985906</v>
       </c>
       <c r="I28" t="n" s="278">
         <v>1.0</v>
@@ -3778,25 +3778,25 @@
         <v>33</v>
       </c>
       <c r="B29" t="n" s="271">
-        <v>1.2199538052276844</v>
+        <v>1.1941432934646787</v>
       </c>
       <c r="C29" t="n" s="272">
-        <v>0.9942582629750655</v>
+        <v>0.8678660916847927</v>
       </c>
       <c r="D29" t="n" s="273">
-        <v>0.3200971495353988</v>
+        <v>0.38546764360305397</v>
       </c>
       <c r="E29" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F29" t="n" s="275">
-        <v>1.1965429293207064</v>
+        <v>1.1574301023511153</v>
       </c>
       <c r="G29" t="n" s="276">
-        <v>0.9710292123882648</v>
+        <v>0.789389234116866</v>
       </c>
       <c r="H29" t="n" s="277">
-        <v>0.3315337318388599</v>
+        <v>0.4298845462643162</v>
       </c>
       <c r="I29" t="n" s="278">
         <v>1.0</v>
@@ -3807,25 +3807,25 @@
         <v>56</v>
       </c>
       <c r="B30" t="n" s="271">
-        <v>0.6661279607605148</v>
+        <v>0.6813955659794106</v>
       </c>
       <c r="C30" t="n" s="272">
-        <v>4.193364709227977</v>
+        <v>4.144362713228232</v>
       </c>
       <c r="D30" t="n" s="273">
-        <v>2.7484702299865032E-5</v>
+        <v>3.407600268468971E-5</v>
       </c>
       <c r="E30" t="n" s="274">
-        <v>1.9239291609905523E-4</v>
+        <v>2.3853201879282796E-4</v>
       </c>
       <c r="F30" t="n" s="275">
-        <v>1.2779271078946048</v>
+        <v>1.2680765857303824</v>
       </c>
       <c r="G30" t="n" s="276">
-        <v>1.2705016201148533</v>
+        <v>1.2098586760475771</v>
       </c>
       <c r="H30" t="n" s="277">
-        <v>0.2039060061236405</v>
+        <v>0.22633312639541373</v>
       </c>
       <c r="I30" t="n" s="278">
         <v>1.0</v>
@@ -3836,25 +3836,25 @@
         <v>57</v>
       </c>
       <c r="B31" t="n" s="271">
-        <v>0.9261208092212111</v>
+        <v>0.9595084792036633</v>
       </c>
       <c r="C31" t="n" s="272">
-        <v>0.2888887513378472</v>
+        <v>0.31382549578275504</v>
       </c>
       <c r="D31" t="n" s="273">
-        <v>0.7726665120353275</v>
+        <v>0.7536535790916276</v>
       </c>
       <c r="E31" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F31" t="n" s="275">
-        <v>1.1945890477260808</v>
+        <v>1.1660922310767579</v>
       </c>
       <c r="G31" t="n" s="276">
-        <v>1.2397878368369437</v>
+        <v>1.0397337822955441</v>
       </c>
       <c r="H31" t="n" s="277">
-        <v>0.21505387822901179</v>
+        <v>0.2984636009346465</v>
       </c>
       <c r="I31" t="n" s="278">
         <v>1.0</v>
@@ -3865,25 +3865,25 @@
         <v>58</v>
       </c>
       <c r="B32" t="n" s="271">
-        <v>1.0956537175196626</v>
+        <v>1.120005482105428</v>
       </c>
       <c r="C32" t="n" s="272">
-        <v>0.3481971068679941</v>
+        <v>0.3826688594864686</v>
       </c>
       <c r="D32" t="n" s="273">
-        <v>0.7276921603853803</v>
+        <v>0.7019653066488669</v>
       </c>
       <c r="E32" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F32" t="n" s="275">
-        <v>1.1764319307494837</v>
+        <v>1.1745872595433298</v>
       </c>
       <c r="G32" t="n" s="276">
-        <v>1.1889172926146756</v>
+        <v>1.1899255721051976</v>
       </c>
       <c r="H32" t="n" s="277">
-        <v>0.2344722146146512</v>
+        <v>0.23407564655572713</v>
       </c>
       <c r="I32" t="n" s="278">
         <v>1.0</v>
@@ -3894,25 +3894,25 @@
         <v>59</v>
       </c>
       <c r="B33" t="n" s="271">
-        <v>1.0620943355573909</v>
+        <v>1.0526016300778438</v>
       </c>
       <c r="C33" t="n" s="272">
-        <v>0.7434523197074817</v>
+        <v>0.7644218751755246</v>
       </c>
       <c r="D33" t="n" s="273">
-        <v>0.4572078784008437</v>
+        <v>0.44461587687565507</v>
       </c>
       <c r="E33" t="n" s="274">
         <v>1.0</v>
       </c>
       <c r="F33" t="n" s="275">
-        <v>1.1336127631720045</v>
+        <v>1.1310205179397277</v>
       </c>
       <c r="G33" t="n" s="276">
-        <v>1.2135632804551568</v>
+        <v>1.1524488238707775</v>
       </c>
       <c r="H33" t="n" s="277">
-        <v>0.2249145360725237</v>
+        <v>0.24913668783442094</v>
       </c>
       <c r="I33" t="n" s="278">
         <v>1.0</v>
@@ -3923,28 +3923,28 @@
         <v>60</v>
       </c>
       <c r="B34" t="n" s="271">
-        <v>1.1219617504107902</v>
+        <v>1.0697629158399946</v>
       </c>
       <c r="C34" t="n" s="272">
-        <v>10.811322605395688</v>
+        <v>11.152981381263544</v>
       </c>
       <c r="D34" t="n" s="273">
-        <v>3.04251418784387E-27</v>
+        <v>6.924659371820562E-29</v>
       </c>
       <c r="E34" t="n" s="274">
-        <v>2.434011350275096E-26</v>
+        <v>5.5397274974564495E-28</v>
       </c>
       <c r="F34" t="n" s="275">
-        <v>1.2943857733471462</v>
+        <v>1.276625242905918</v>
       </c>
       <c r="G34" t="n" s="276">
-        <v>3.5270546860482503</v>
+        <v>3.354036183646744</v>
       </c>
       <c r="H34" t="n" s="277">
-        <v>4.202099629745468E-4</v>
+        <v>7.964194758781853E-4</v>
       </c>
       <c r="I34" t="n" s="278">
-        <v>0.003781889666770921</v>
+        <v>0.007167775282903668</v>
       </c>
     </row>
     <row r="35">
@@ -3952,10 +3952,10 @@
         <v>61</v>
       </c>
       <c r="B35" t="n" s="271">
-        <v>1.0912993472865762</v>
+        <v>1.2074499302380648</v>
       </c>
       <c r="C35" t="n" s="272">
-        <v>252.1255794158056</v>
+        <v>243.4983780187129</v>
       </c>
       <c r="D35" t="n" s="273">
         <v>0.0</v>
@@ -3964,16 +3964,16 @@
         <v>0.0</v>
       </c>
       <c r="F35" t="n" s="275">
-        <v>1.2231359573806677</v>
+        <v>1.2404709564000362</v>
       </c>
       <c r="G35" t="n" s="276">
-        <v>1.6687845439838647</v>
+        <v>1.739786106974829</v>
       </c>
       <c r="H35" t="n" s="277">
-        <v>0.09516008689256669</v>
+        <v>0.08189658288151834</v>
       </c>
       <c r="I35" t="n" s="278">
-        <v>0.7612806951405335</v>
+        <v>0.6551726630521467</v>
       </c>
     </row>
     <row r="36">
@@ -5053,16 +5053,16 @@
         <v>1.0</v>
       </c>
       <c r="F2" t="n" s="302">
-        <v>0.16188640867881718</v>
+        <v>0.16188953370673242</v>
       </c>
       <c r="G2" t="n" s="303">
-        <v>-0.32442370801880094</v>
+        <v>-0.32447680386520983</v>
       </c>
       <c r="H2" t="n" s="304">
-        <v>0.16542803909979822</v>
+        <v>0.16543239094350182</v>
       </c>
       <c r="I2" t="n" s="305">
-        <v>-0.32665580234441305</v>
+        <v>-0.32671091745950387</v>
       </c>
     </row>
     <row r="3">
@@ -5082,16 +5082,16 @@
         <v>2.0</v>
       </c>
       <c r="F3" t="n" s="302">
-        <v>0.17606389219123664</v>
+        <v>0.1760249615365859</v>
       </c>
       <c r="G3" t="n" s="303">
-        <v>-1.1880720588768037</v>
+        <v>-1.1882384479274126</v>
       </c>
       <c r="H3" t="n" s="304">
-        <v>0.17848093075126995</v>
+        <v>0.17844138888625444</v>
       </c>
       <c r="I3" t="n" s="305">
-        <v>-1.1819613661399073</v>
+        <v>-1.1821293075209969</v>
       </c>
     </row>
     <row r="4">
@@ -5111,16 +5111,16 @@
         <v>3.0</v>
       </c>
       <c r="F4" t="n" s="302">
-        <v>1.0934346905630605</v>
+        <v>1.093602531651389</v>
       </c>
       <c r="G4" t="n" s="303">
-        <v>0.35973815018062005</v>
+        <v>0.3599741092763931</v>
       </c>
       <c r="H4" t="n" s="304">
-        <v>1.0887857703522719</v>
+        <v>1.0889447048719614</v>
       </c>
       <c r="I4" t="n" s="305">
-        <v>0.3532969038000864</v>
+        <v>0.35352127304719905</v>
       </c>
     </row>
     <row r="5">
@@ -5140,16 +5140,16 @@
         <v>4.0</v>
       </c>
       <c r="F5" t="n" s="302">
-        <v>0.5076679838425943</v>
+        <v>0.5077100227828838</v>
       </c>
       <c r="G5" t="n" s="303">
-        <v>-0.6088768337179443</v>
+        <v>-0.6087771560212648</v>
       </c>
       <c r="H5" t="n" s="304">
-        <v>0.5053575770146365</v>
+        <v>0.5054008164999237</v>
       </c>
       <c r="I5" t="n" s="305">
-        <v>-0.615412943867732</v>
+        <v>-0.6153095101239445</v>
       </c>
     </row>
     <row r="6">
@@ -5169,16 +5169,16 @@
         <v>5.0</v>
       </c>
       <c r="F6" t="n" s="302">
-        <v>0.7236780562200765</v>
+        <v>0.7237940772688498</v>
       </c>
       <c r="G6" t="n" s="303">
-        <v>-0.1895721769010092</v>
+        <v>-0.18936659403222741</v>
       </c>
       <c r="H6" t="n" s="304">
-        <v>0.7320407640695011</v>
+        <v>0.7321549661101406</v>
       </c>
       <c r="I6" t="n" s="305">
-        <v>-0.17600781731155918</v>
+        <v>-0.1758063332394321</v>
       </c>
     </row>
     <row r="7">
@@ -5198,16 +5198,16 @@
         <v>6.0</v>
       </c>
       <c r="F7" t="n" s="302">
-        <v>0.3511315731455065</v>
+        <v>0.35120871285465904</v>
       </c>
       <c r="G7" t="n" s="303">
-        <v>-1.0593486761380748</v>
+        <v>-1.0590528690404142</v>
       </c>
       <c r="H7" t="n" s="304">
-        <v>0.3486700457509027</v>
+        <v>0.34874200350546847</v>
       </c>
       <c r="I7" t="n" s="305">
-        <v>-1.0675124397691773</v>
+        <v>-1.0672314012768382</v>
       </c>
     </row>
     <row r="8">
@@ -5227,16 +5227,16 @@
         <v>7.0</v>
       </c>
       <c r="F8" t="n" s="302">
-        <v>0.018498785396795323</v>
+        <v>0.0185069010084736</v>
       </c>
       <c r="G8" t="n" s="303">
-        <v>-2.0243757761114938</v>
+        <v>-2.0242865126328</v>
       </c>
       <c r="H8" t="n" s="304">
-        <v>0.01862399855815963</v>
+        <v>0.018632260114969237</v>
       </c>
       <c r="I8" t="n" s="305">
-        <v>-2.022502205326248</v>
+        <v>-2.022411184273863</v>
       </c>
     </row>
     <row r="9">
@@ -5256,16 +5256,16 @@
         <v>8.0</v>
       </c>
       <c r="F9" t="n" s="302">
-        <v>0.7501463150473104</v>
+        <v>0.750071790176642</v>
       </c>
       <c r="G9" t="n" s="303">
-        <v>0.023905851599359818</v>
+        <v>0.02380248191506651</v>
       </c>
       <c r="H9" t="n" s="304">
-        <v>0.7455005018822245</v>
+        <v>0.7454230652222703</v>
       </c>
       <c r="I9" t="n" s="305">
-        <v>0.017924372068404304</v>
+        <v>0.017816793645348383</v>
       </c>
     </row>
     <row r="10">
@@ -5285,16 +5285,16 @@
         <v>9.0</v>
       </c>
       <c r="F10" t="n" s="302">
-        <v>1.0036721219684706</v>
+        <v>1.0035446420830911</v>
       </c>
       <c r="G10" t="n" s="303">
-        <v>0.27969008719941746</v>
+        <v>0.27954049569735523</v>
       </c>
       <c r="H10" t="n" s="304">
-        <v>1.0360295078884898</v>
+        <v>1.0359117374288445</v>
       </c>
       <c r="I10" t="n" s="305">
-        <v>0.31582704503505865</v>
+        <v>0.3156885229940686</v>
       </c>
     </row>
     <row r="11">
@@ -5314,16 +5314,16 @@
         <v>10.0</v>
       </c>
       <c r="F11" t="n" s="302">
-        <v>0.6507395255256566</v>
+        <v>0.650632381242319</v>
       </c>
       <c r="G11" t="n" s="303">
-        <v>-0.3939737597444779</v>
+        <v>-0.39419894483647855</v>
       </c>
       <c r="H11" t="n" s="304">
-        <v>0.6538968172601723</v>
+        <v>0.6537906435691585</v>
       </c>
       <c r="I11" t="n" s="305">
-        <v>-0.3871847458725648</v>
+        <v>-0.38740693383358393</v>
       </c>
     </row>
     <row r="12">
@@ -5343,16 +5343,16 @@
         <v>11.0</v>
       </c>
       <c r="F12" t="n" s="302">
-        <v>0.8516385219878378</v>
+        <v>0.8517276116152249</v>
       </c>
       <c r="G12" t="n" s="303">
-        <v>0.06717168425766964</v>
+        <v>0.06729220175575445</v>
       </c>
       <c r="H12" t="n" s="304">
-        <v>0.8617549551681447</v>
+        <v>0.8618420851890688</v>
       </c>
       <c r="I12" t="n" s="305">
-        <v>0.08010334947481848</v>
+        <v>0.08022059120322028</v>
       </c>
     </row>
     <row r="13">
@@ -5372,16 +5372,16 @@
         <v>12.0</v>
       </c>
       <c r="F13" t="n" s="302">
-        <v>0.29825539197989054</v>
+        <v>0.2982450313839602</v>
       </c>
       <c r="G13" t="n" s="303">
-        <v>-0.9910660866385358</v>
+        <v>-0.9911102124959503</v>
       </c>
       <c r="H13" t="n" s="304">
-        <v>0.2976989861217211</v>
+        <v>0.2976862426872777</v>
       </c>
       <c r="I13" t="n" s="305">
-        <v>-0.9967594935192254</v>
+        <v>-0.9968106576543787</v>
       </c>
     </row>
     <row r="14">
@@ -5401,16 +5401,16 @@
         <v>13.0</v>
       </c>
       <c r="F14" t="n" s="302">
-        <v>1.6112198314801587</v>
+        <v>1.6114725873236664</v>
       </c>
       <c r="G14" t="n" s="303">
-        <v>0.8927077111350002</v>
+        <v>0.8929203030029755</v>
       </c>
       <c r="H14" t="n" s="304">
-        <v>1.561786121894957</v>
+        <v>1.5619990246469333</v>
       </c>
       <c r="I14" t="n" s="305">
-        <v>0.8513133451526309</v>
+        <v>0.8514967569856036</v>
       </c>
     </row>
     <row r="15">
@@ -5430,16 +5430,16 @@
         <v>14.0</v>
       </c>
       <c r="F15" t="n" s="302">
-        <v>0.02392452807898976</v>
+        <v>0.0239368428171448</v>
       </c>
       <c r="G15" t="n" s="303">
-        <v>-2.7742928097717616</v>
+        <v>-2.7741225637314884</v>
       </c>
       <c r="H15" t="n" s="304">
-        <v>0.024321573440846313</v>
+        <v>0.024334118454775816</v>
       </c>
       <c r="I15" t="n" s="305">
-        <v>-2.773684880771814</v>
+        <v>-2.773515264799843</v>
       </c>
     </row>
     <row r="16">
@@ -5459,16 +5459,16 @@
         <v>15.0</v>
       </c>
       <c r="F16" t="n" s="302">
-        <v>0.09118875076996867</v>
+        <v>0.09117253090566056</v>
       </c>
       <c r="G16" t="n" s="303">
-        <v>-2.304117964072648</v>
+        <v>-2.304263590404568</v>
       </c>
       <c r="H16" t="n" s="304">
-        <v>0.0904665316962922</v>
+        <v>0.09045039383895238</v>
       </c>
       <c r="I16" t="n" s="305">
-        <v>-2.3083447782076165</v>
+        <v>-2.3084898442346073</v>
       </c>
     </row>
     <row r="17">
@@ -5488,16 +5488,16 @@
         <v>16.0</v>
       </c>
       <c r="F17" t="n" s="302">
-        <v>0.30930722051848936</v>
+        <v>0.3092819439802659</v>
       </c>
       <c r="G17" t="n" s="303">
-        <v>-0.7816774082884543</v>
+        <v>-0.7817539400192091</v>
       </c>
       <c r="H17" t="n" s="304">
-        <v>0.3108414512317251</v>
+        <v>0.31082009060316124</v>
       </c>
       <c r="I17" t="n" s="305">
-        <v>-0.7812666892167617</v>
+        <v>-0.7813351335025155</v>
       </c>
     </row>
     <row r="18">
@@ -5517,16 +5517,16 @@
         <v>17.0</v>
       </c>
       <c r="F18" t="n" s="302">
-        <v>0.17606389219123664</v>
+        <v>0.1760249615365859</v>
       </c>
       <c r="G18" t="n" s="303">
-        <v>-1.1880720588768037</v>
+        <v>-1.1882384479274126</v>
       </c>
       <c r="H18" t="n" s="304">
-        <v>0.17848093075126995</v>
+        <v>0.17844138888625444</v>
       </c>
       <c r="I18" t="n" s="305">
-        <v>-1.1819613661399073</v>
+        <v>-1.1821293075209969</v>
       </c>
     </row>
     <row r="19">
@@ -5546,16 +5546,16 @@
         <v>18.0</v>
       </c>
       <c r="F19" t="n" s="302">
-        <v>0.43319425706149883</v>
+        <v>0.4332161615951436</v>
       </c>
       <c r="G19" t="n" s="303">
-        <v>-0.3619884224703003</v>
+        <v>-0.3619832104415567</v>
       </c>
       <c r="H19" t="n" s="304">
-        <v>0.4288835337399676</v>
+        <v>0.428905944066569</v>
       </c>
       <c r="I19" t="n" s="305">
-        <v>-0.3746810674526008</v>
+        <v>-0.3746738250168894</v>
       </c>
     </row>
     <row r="20">
@@ -5575,16 +5575,16 @@
         <v>19.0</v>
       </c>
       <c r="F20" t="n" s="302">
-        <v>0.65711121762704</v>
+        <v>0.6571275447364497</v>
       </c>
       <c r="G20" t="n" s="303">
-        <v>-0.018527671467184592</v>
+        <v>-0.01849253509288412</v>
       </c>
       <c r="H20" t="n" s="304">
-        <v>0.6343855072076494</v>
+        <v>0.6343910322734836</v>
       </c>
       <c r="I20" t="n" s="305">
-        <v>-0.05506016613325443</v>
+        <v>-0.05504188272398025</v>
       </c>
     </row>
     <row r="21">
@@ -5604,16 +5604,16 @@
         <v>20.0</v>
       </c>
       <c r="F21" t="n" s="302">
-        <v>1.1036184127163875</v>
+        <v>1.103708889586539</v>
       </c>
       <c r="G21" t="n" s="303">
-        <v>0.39191885042516056</v>
+        <v>0.3920231131951879</v>
       </c>
       <c r="H21" t="n" s="304">
-        <v>1.0897106161583219</v>
+        <v>1.0897904776420766</v>
       </c>
       <c r="I21" t="n" s="305">
-        <v>0.374953973045863</v>
+        <v>0.37504650997811434</v>
       </c>
     </row>
     <row r="22">
@@ -5633,16 +5633,16 @@
         <v>21.0</v>
       </c>
       <c r="F22" t="n" s="302">
-        <v>0.6691326558061759</v>
+        <v>0.6692337589664247</v>
       </c>
       <c r="G22" t="n" s="303">
-        <v>-0.019408740784688128</v>
+        <v>-0.019302299937575818</v>
       </c>
       <c r="H22" t="n" s="304">
-        <v>0.6615072228337708</v>
+        <v>0.6615967191996389</v>
       </c>
       <c r="I22" t="n" s="305">
-        <v>-0.032740108599494</v>
+        <v>-0.03264651501345994</v>
       </c>
     </row>
     <row r="23">
@@ -5662,16 +5662,16 @@
         <v>22.0</v>
       </c>
       <c r="F23" t="n" s="302">
-        <v>0.8516385219878378</v>
+        <v>0.8517276116152249</v>
       </c>
       <c r="G23" t="n" s="303">
-        <v>0.06717168425766964</v>
+        <v>0.06729220175575445</v>
       </c>
       <c r="H23" t="n" s="304">
-        <v>0.8617549551681447</v>
+        <v>0.8618420851890688</v>
       </c>
       <c r="I23" t="n" s="305">
-        <v>0.08010334947481848</v>
+        <v>0.08022059120322028</v>
       </c>
     </row>
     <row r="24">
@@ -5691,16 +5691,16 @@
         <v>23.0</v>
       </c>
       <c r="F24" t="n" s="302">
-        <v>0.8171622390860129</v>
+        <v>0.8171685284942756</v>
       </c>
       <c r="G24" t="n" s="303">
-        <v>-0.016475787433968242</v>
+        <v>-0.016444665223345423</v>
       </c>
       <c r="H24" t="n" s="304">
-        <v>0.7810212803144447</v>
+        <v>0.7810228952097625</v>
       </c>
       <c r="I24" t="n" s="305">
-        <v>-0.07505790092360298</v>
+        <v>-0.07503173659531626</v>
       </c>
     </row>
     <row r="25">
@@ -5720,16 +5720,16 @@
         <v>24.0</v>
       </c>
       <c r="F25" t="n" s="302">
-        <v>0.11708742248554661</v>
+        <v>0.11708874893154936</v>
       </c>
       <c r="G25" t="n" s="303">
-        <v>-2.0051734451630185</v>
+        <v>-2.0050518843306175</v>
       </c>
       <c r="H25" t="n" s="304">
-        <v>0.11883223329263536</v>
+        <v>0.11883445400645642</v>
       </c>
       <c r="I25" t="n" s="305">
-        <v>-1.9961060493295748</v>
+        <v>-1.9959813315358386</v>
       </c>
     </row>
     <row r="26">
@@ -5749,16 +5749,16 @@
         <v>25.0</v>
       </c>
       <c r="F26" t="n" s="302">
-        <v>0.021989059347080748</v>
+        <v>0.021997638458481975</v>
       </c>
       <c r="G26" t="n" s="303">
-        <v>-2.777655910493474</v>
+        <v>-2.777481045293725</v>
       </c>
       <c r="H26" t="n" s="304">
-        <v>0.021821087405310066</v>
+        <v>0.021829766311442095</v>
       </c>
       <c r="I26" t="n" s="305">
-        <v>-2.7850049205537255</v>
+        <v>-2.7848252498261403</v>
       </c>
     </row>
     <row r="27">
@@ -5778,16 +5778,16 @@
         <v>26.0</v>
       </c>
       <c r="F27" t="n" s="302">
-        <v>1.4892622085538756</v>
+        <v>1.4893126489656883</v>
       </c>
       <c r="G27" t="n" s="303">
-        <v>0.7851872992123439</v>
+        <v>0.7852299297769192</v>
       </c>
       <c r="H27" t="n" s="304">
-        <v>1.4770421403933243</v>
+        <v>1.4771155357343093</v>
       </c>
       <c r="I27" t="n" s="305">
-        <v>0.7752058938124171</v>
+        <v>0.775269896387946</v>
       </c>
     </row>
     <row r="28">
@@ -5807,16 +5807,16 @@
         <v>27.0</v>
       </c>
       <c r="F28" t="n" s="302">
-        <v>1.1907225243318391</v>
+        <v>1.190577651924074</v>
       </c>
       <c r="G28" t="n" s="303">
-        <v>0.4933479641586225</v>
+        <v>0.49314907935920127</v>
       </c>
       <c r="H28" t="n" s="304">
-        <v>1.1886280828603348</v>
+        <v>1.1884890698984756</v>
       </c>
       <c r="I28" t="n" s="305">
-        <v>0.4905460755378477</v>
+        <v>0.4903548209588726</v>
       </c>
     </row>
     <row r="29">
@@ -5836,16 +5836,16 @@
         <v>28.0</v>
       </c>
       <c r="F29" t="n" s="302">
-        <v>0.15305206180998224</v>
+        <v>0.15302630574037682</v>
       </c>
       <c r="G29" t="n" s="303">
-        <v>-1.8316504277214183</v>
+        <v>-1.831714807829735</v>
       </c>
       <c r="H29" t="n" s="304">
-        <v>0.1520698149979183</v>
+        <v>0.15204289424937542</v>
       </c>
       <c r="I29" t="n" s="305">
-        <v>-1.8360856319166667</v>
+        <v>-1.8361559452837013</v>
       </c>
     </row>
     <row r="30">
@@ -5865,16 +5865,16 @@
         <v>29.0</v>
       </c>
       <c r="F30" t="n" s="302">
-        <v>1.1859923446071248</v>
+        <v>1.186096158695566</v>
       </c>
       <c r="G30" t="n" s="303">
-        <v>0.4937053005403708</v>
+        <v>0.4938081048799132</v>
       </c>
       <c r="H30" t="n" s="304">
-        <v>1.1972456193864784</v>
+        <v>1.1973561667728176</v>
       </c>
       <c r="I30" t="n" s="305">
-        <v>0.5048518610705789</v>
+        <v>0.504961043111686</v>
       </c>
     </row>
     <row r="31">
@@ -5894,16 +5894,16 @@
         <v>30.0</v>
       </c>
       <c r="F31" t="n" s="302">
-        <v>0.14123649375331762</v>
+        <v>0.14118960836506378</v>
       </c>
       <c r="G31" t="n" s="303">
-        <v>-2.0015795985654843</v>
+        <v>-2.0018480727483876</v>
       </c>
       <c r="H31" t="n" s="304">
-        <v>0.1448787103261612</v>
+        <v>0.1448322536910174</v>
       </c>
       <c r="I31" t="n" s="305">
-        <v>-1.9841556049949656</v>
+        <v>-1.9844198479167476</v>
       </c>
     </row>
     <row r="32">
@@ -5923,16 +5923,16 @@
         <v>31.0</v>
       </c>
       <c r="F32" t="n" s="302">
-        <v>0.1639598028200985</v>
+        <v>0.16391136073555715</v>
       </c>
       <c r="G32" t="n" s="303">
-        <v>-0.26841223103257716</v>
+        <v>-0.2684872362384293</v>
       </c>
       <c r="H32" t="n" s="304">
-        <v>0.1674464547968559</v>
+        <v>0.1673996817617496</v>
       </c>
       <c r="I32" t="n" s="305">
-        <v>-0.27070507393861987</v>
+        <v>-0.27077657294638124</v>
       </c>
     </row>
     <row r="33">
@@ -5952,16 +5952,16 @@
         <v>32.0</v>
       </c>
       <c r="F33" t="n" s="302">
-        <v>1.9332002836585926</v>
+        <v>1.9333264153731529</v>
       </c>
       <c r="G33" t="n" s="303">
-        <v>1.2418050910425005</v>
+        <v>1.2418833982896007</v>
       </c>
       <c r="H33" t="n" s="304">
-        <v>2.00080413872115</v>
+        <v>2.000944459941048</v>
       </c>
       <c r="I33" t="n" s="305">
-        <v>1.3026848445559622</v>
+        <v>1.3027708140329826</v>
       </c>
     </row>
     <row r="34">
@@ -5981,16 +5981,16 @@
         <v>33.0</v>
       </c>
       <c r="F34" t="n" s="302">
-        <v>0.30930722051848936</v>
+        <v>0.3092819439802659</v>
       </c>
       <c r="G34" t="n" s="303">
-        <v>-0.7816774082884543</v>
+        <v>-0.7817539400192091</v>
       </c>
       <c r="H34" t="n" s="304">
-        <v>0.3108414512317251</v>
+        <v>0.31082009060316124</v>
       </c>
       <c r="I34" t="n" s="305">
-        <v>-0.7812666892167617</v>
+        <v>-0.7813351335025155</v>
       </c>
     </row>
     <row r="35">
@@ -6010,16 +6010,16 @@
         <v>34.0</v>
       </c>
       <c r="F35" t="n" s="302">
-        <v>1.0380154124447611</v>
+        <v>1.038099146029538</v>
       </c>
       <c r="G35" t="n" s="303">
-        <v>0.2740065966062003</v>
+        <v>0.27413246708345895</v>
       </c>
       <c r="H35" t="n" s="304">
-        <v>1.0523298713546443</v>
+        <v>1.052421630915796</v>
       </c>
       <c r="I35" t="n" s="305">
-        <v>0.29527023546304665</v>
+        <v>0.2954069876866291</v>
       </c>
     </row>
     <row r="36">
@@ -6039,16 +6039,16 @@
         <v>35.0</v>
       </c>
       <c r="F36" t="n" s="302">
-        <v>0.15305206180998224</v>
+        <v>0.15302630574037682</v>
       </c>
       <c r="G36" t="n" s="303">
-        <v>-1.8316504277214183</v>
+        <v>-1.831714807829735</v>
       </c>
       <c r="H36" t="n" s="304">
-        <v>0.1520698149979183</v>
+        <v>0.15204289424937542</v>
       </c>
       <c r="I36" t="n" s="305">
-        <v>-1.8360856319166667</v>
+        <v>-1.8361559452837013</v>
       </c>
     </row>
     <row r="37">
@@ -6068,16 +6068,16 @@
         <v>36.0</v>
       </c>
       <c r="F37" t="n" s="302">
-        <v>0.018498785396795323</v>
+        <v>0.0185069010084736</v>
       </c>
       <c r="G37" t="n" s="303">
-        <v>-2.0243757761114938</v>
+        <v>-2.0242865126328</v>
       </c>
       <c r="H37" t="n" s="304">
-        <v>0.01862399855815963</v>
+        <v>0.018632260114969237</v>
       </c>
       <c r="I37" t="n" s="305">
-        <v>-2.022502205326248</v>
+        <v>-2.022411184273863</v>
       </c>
     </row>
     <row r="38">
@@ -6097,16 +6097,16 @@
         <v>37.0</v>
       </c>
       <c r="F38" t="n" s="302">
-        <v>0.20282821360827083</v>
+        <v>0.2028602882074637</v>
       </c>
       <c r="G38" t="n" s="303">
-        <v>-1.2805209680026102</v>
+        <v>-1.2804261843180464</v>
       </c>
       <c r="H38" t="n" s="304">
-        <v>0.19814833528614498</v>
+        <v>0.1981796691286465</v>
       </c>
       <c r="I38" t="n" s="305">
-        <v>-1.3047641284963933</v>
+        <v>-1.3046734133010773</v>
       </c>
     </row>
     <row r="39">
@@ -6126,16 +6126,16 @@
         <v>38.0</v>
       </c>
       <c r="F39" t="n" s="302">
-        <v>0.1639598028200985</v>
+        <v>0.16391136073555715</v>
       </c>
       <c r="G39" t="n" s="303">
-        <v>-0.26841223103257716</v>
+        <v>-0.2684872362384293</v>
       </c>
       <c r="H39" t="n" s="304">
-        <v>0.1674464547968559</v>
+        <v>0.1673996817617496</v>
       </c>
       <c r="I39" t="n" s="305">
-        <v>-0.27070507393861987</v>
+        <v>-0.27077657294638124</v>
       </c>
     </row>
     <row r="40">
@@ -6155,16 +6155,16 @@
         <v>39.0</v>
       </c>
       <c r="F40" t="n" s="302">
-        <v>1.9332002836585926</v>
+        <v>1.9333264153731529</v>
       </c>
       <c r="G40" t="n" s="303">
-        <v>1.2418050910425005</v>
+        <v>1.2418833982896007</v>
       </c>
       <c r="H40" t="n" s="304">
-        <v>2.00080413872115</v>
+        <v>2.000944459941048</v>
       </c>
       <c r="I40" t="n" s="305">
-        <v>1.3026848445559622</v>
+        <v>1.3027708140329826</v>
       </c>
     </row>
     <row r="41">
@@ -6184,16 +6184,16 @@
         <v>40.0</v>
       </c>
       <c r="F41" t="n" s="302">
-        <v>0.5627520585389405</v>
+        <v>0.5626784854205259</v>
       </c>
       <c r="G41" t="n" s="303">
-        <v>-0.24006611102532344</v>
+        <v>-0.24019156422804322</v>
       </c>
       <c r="H41" t="n" s="304">
-        <v>0.5643394334789837</v>
+        <v>0.564266831354537</v>
       </c>
       <c r="I41" t="n" s="305">
-        <v>-0.2376064234833133</v>
+        <v>-0.23773009706066323</v>
       </c>
     </row>
     <row r="42">
@@ -6213,16 +6213,16 @@
         <v>41.0</v>
       </c>
       <c r="F42" t="n" s="302">
-        <v>0.4092305150661219</v>
+        <v>0.40926027745335086</v>
       </c>
       <c r="G42" t="n" s="303">
-        <v>-0.5736373373609323</v>
+        <v>-0.5735941621518612</v>
       </c>
       <c r="H42" t="n" s="304">
-        <v>0.40354814754561824</v>
+        <v>0.40357903231296444</v>
       </c>
       <c r="I42" t="n" s="305">
-        <v>-0.5869640586605986</v>
+        <v>-0.5869184646343324</v>
       </c>
     </row>
     <row r="43">
@@ -6242,16 +6242,16 @@
         <v>42.0</v>
       </c>
       <c r="F43" t="n" s="302">
-        <v>0.4614029423297519</v>
+        <v>0.46136968351179375</v>
       </c>
       <c r="G43" t="n" s="303">
-        <v>-0.7136707492291867</v>
+        <v>-0.7137404201850274</v>
       </c>
       <c r="H43" t="n" s="304">
-        <v>0.4592813368204743</v>
+        <v>0.45924865608330495</v>
       </c>
       <c r="I43" t="n" s="305">
-        <v>-0.7202385419706544</v>
+        <v>-0.7203064291375187</v>
       </c>
     </row>
     <row r="44">
@@ -6271,16 +6271,16 @@
         <v>43.0</v>
       </c>
       <c r="F44" t="n" s="302">
-        <v>0.09118875076996867</v>
+        <v>0.09117253090566056</v>
       </c>
       <c r="G44" t="n" s="303">
-        <v>-2.304117964072648</v>
+        <v>-2.304263590404568</v>
       </c>
       <c r="H44" t="n" s="304">
-        <v>0.0904665316962922</v>
+        <v>0.09045039383895238</v>
       </c>
       <c r="I44" t="n" s="305">
-        <v>-2.3083447782076165</v>
+        <v>-2.3084898442346073</v>
       </c>
     </row>
     <row r="45">
@@ -6300,16 +6300,16 @@
         <v>44.0</v>
       </c>
       <c r="F45" t="n" s="302">
-        <v>0.024417411647739265</v>
+        <v>0.02442298897295021</v>
       </c>
       <c r="G45" t="n" s="303">
-        <v>-2.6267340635108303</v>
+        <v>-2.6265137621945596</v>
       </c>
       <c r="H45" t="n" s="304">
-        <v>0.02667711989689565</v>
+        <v>0.026683190070305646</v>
       </c>
       <c r="I45" t="n" s="305">
-        <v>-2.6021524068265274</v>
+        <v>-2.601931728528604</v>
       </c>
     </row>
     <row r="46">
@@ -6329,16 +6329,16 @@
         <v>45.0</v>
       </c>
       <c r="F46" t="n" s="302">
-        <v>0.018498785396795323</v>
+        <v>0.0185069010084736</v>
       </c>
       <c r="G46" t="n" s="303">
-        <v>-2.0243757761114938</v>
+        <v>-2.0242865126328</v>
       </c>
       <c r="H46" t="n" s="304">
-        <v>0.01862399855815963</v>
+        <v>0.018632260114969237</v>
       </c>
       <c r="I46" t="n" s="305">
-        <v>-2.022502205326248</v>
+        <v>-2.022411184273863</v>
       </c>
     </row>
     <row r="47">
@@ -6358,16 +6358,16 @@
         <v>46.0</v>
       </c>
       <c r="F47" t="n" s="302">
-        <v>3.5461059254789884</v>
+        <v>3.546198569431883</v>
       </c>
       <c r="G47" t="n" s="303">
-        <v>1.983681145147193</v>
+        <v>1.983740580822332</v>
       </c>
       <c r="H47" t="n" s="304">
-        <v>3.5598179409113775</v>
+        <v>3.55992041583507</v>
       </c>
       <c r="I47" t="n" s="305">
-        <v>1.989933232856235</v>
+        <v>1.9899970665514988</v>
       </c>
     </row>
     <row r="48">
@@ -6387,16 +6387,16 @@
         <v>47.0</v>
       </c>
       <c r="F48" t="n" s="302">
-        <v>1.5763101067640795</v>
+        <v>1.5765232747037938</v>
       </c>
       <c r="G48" t="n" s="303">
-        <v>0.9507447289581917</v>
+        <v>0.9509618828574288</v>
       </c>
       <c r="H48" t="n" s="304">
-        <v>1.568912560726833</v>
+        <v>1.5691163099402325</v>
       </c>
       <c r="I48" t="n" s="305">
-        <v>0.9425406749673096</v>
+        <v>0.9427483534104585</v>
       </c>
     </row>
     <row r="49">
@@ -6416,16 +6416,16 @@
         <v>48.0</v>
       </c>
       <c r="F49" t="n" s="302">
-        <v>0.11708742248554661</v>
+        <v>0.11708874893154936</v>
       </c>
       <c r="G49" t="n" s="303">
-        <v>-2.0051734451630185</v>
+        <v>-2.0050518843306175</v>
       </c>
       <c r="H49" t="n" s="304">
-        <v>0.11883223329263536</v>
+        <v>0.11883445400645642</v>
       </c>
       <c r="I49" t="n" s="305">
-        <v>-1.9961060493295748</v>
+        <v>-1.9959813315358386</v>
       </c>
     </row>
     <row r="50">
@@ -6445,16 +6445,16 @@
         <v>49.0</v>
       </c>
       <c r="F50" t="n" s="302">
-        <v>0.3663989117277933</v>
+        <v>0.3663789000156132</v>
       </c>
       <c r="G50" t="n" s="303">
-        <v>-0.7581131091217932</v>
+        <v>-0.7581390938037372</v>
       </c>
       <c r="H50" t="n" s="304">
-        <v>0.37167032870539396</v>
+        <v>0.3716350420818104</v>
       </c>
       <c r="I50" t="n" s="305">
-        <v>-0.7600436568442708</v>
+        <v>-0.7601139840143958</v>
       </c>
     </row>
     <row r="51">
@@ -6474,16 +6474,16 @@
         <v>50.0</v>
       </c>
       <c r="F51" t="n" s="302">
-        <v>1.6017112793154302</v>
+        <v>1.601607520545895</v>
       </c>
       <c r="G51" t="n" s="303">
-        <v>0.870279017137307</v>
+        <v>0.8701978963234291</v>
       </c>
       <c r="H51" t="n" s="304">
-        <v>1.6271437610039432</v>
+        <v>1.6270348241888195</v>
       </c>
       <c r="I51" t="n" s="305">
-        <v>0.8915051637421756</v>
+        <v>0.8914210214467286</v>
       </c>
     </row>
     <row r="52">
@@ -6503,16 +6503,16 @@
         <v>51.0</v>
       </c>
       <c r="F52" t="n" s="302">
-        <v>1.2615996471617277</v>
+        <v>1.2614617235746026</v>
       </c>
       <c r="G52" t="n" s="303">
-        <v>0.5686981675458579</v>
+        <v>0.5685508776489894</v>
       </c>
       <c r="H52" t="n" s="304">
-        <v>1.2493357419540962</v>
+        <v>1.2491826717298653</v>
       </c>
       <c r="I52" t="n" s="305">
-        <v>0.5556135120427628</v>
+        <v>0.5554481981437902</v>
       </c>
     </row>
   </sheetData>
@@ -6591,7 +6591,7 @@
         <v>7.0</v>
       </c>
       <c r="E2" t="n" s="316">
-        <v>1.0</v>
+        <v>10169.0</v>
       </c>
       <c r="F2" t="n" s="317">
         <v>3.0</v>
@@ -6603,13 +6603,13 @@
         <v>21.0</v>
       </c>
       <c r="I2" t="n" s="320">
-        <v>3.8693448360618232</v>
+        <v>3.869598524640087</v>
       </c>
       <c r="J2" t="n" s="321">
-        <v>1.4776982224761706</v>
+        <v>1.4777477238719186</v>
       </c>
       <c r="K2" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="3">
@@ -6626,7 +6626,7 @@
         <v>5.0</v>
       </c>
       <c r="E3" t="n" s="316">
-        <v>2.0</v>
+        <v>10170.0</v>
       </c>
       <c r="F3" t="n" s="317">
         <v>3.0</v>
@@ -6638,13 +6638,13 @@
         <v>21.0</v>
       </c>
       <c r="I3" t="n" s="320">
-        <v>0.1123405014108056</v>
+        <v>0.11236566261806137</v>
       </c>
       <c r="J3" t="n" s="321">
-        <v>0.6113269932223514</v>
+        <v>0.6113355550159763</v>
       </c>
       <c r="K3" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="4">
@@ -6661,7 +6661,7 @@
         <v>4.0</v>
       </c>
       <c r="E4" t="n" s="316">
-        <v>3.0</v>
+        <v>10171.0</v>
       </c>
       <c r="F4" t="n" s="317">
         <v>3.0</v>
@@ -6673,13 +6673,13 @@
         <v>21.0</v>
       </c>
       <c r="I4" t="n" s="320">
-        <v>1.1012141280806433</v>
+        <v>1.1012785782552967</v>
       </c>
       <c r="J4" t="n" s="321">
-        <v>0.5758179855208833</v>
+        <v>0.5758323386581856</v>
       </c>
       <c r="K4" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="5">
@@ -6696,7 +6696,7 @@
         <v>5.0</v>
       </c>
       <c r="E5" t="n" s="316">
-        <v>4.0</v>
+        <v>10172.0</v>
       </c>
       <c r="F5" t="n" s="317">
         <v>3.0</v>
@@ -6708,13 +6708,13 @@
         <v>21.0</v>
       </c>
       <c r="I5" t="n" s="320">
-        <v>0.7990716787907826</v>
+        <v>0.7991208665692479</v>
       </c>
       <c r="J5" t="n" s="321">
-        <v>0.5762591467418597</v>
+        <v>0.5762714875664662</v>
       </c>
       <c r="K5" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="6">
@@ -6731,7 +6731,7 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n" s="316">
-        <v>5.0</v>
+        <v>10174.0</v>
       </c>
       <c r="F6" t="n" s="317">
         <v>3.0</v>
@@ -6743,13 +6743,13 @@
         <v>21.0</v>
       </c>
       <c r="I6" t="n" s="320">
-        <v>0.7990716787907826</v>
+        <v>0.7991208665692479</v>
       </c>
       <c r="J6" t="n" s="321">
-        <v>0.5762591467418597</v>
+        <v>0.5762714875664662</v>
       </c>
       <c r="K6" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="7">
@@ -6766,7 +6766,7 @@
         <v>5.0</v>
       </c>
       <c r="E7" t="n" s="316">
-        <v>6.0</v>
+        <v>10175.0</v>
       </c>
       <c r="F7" t="n" s="317">
         <v>3.0</v>
@@ -6778,13 +6778,13 @@
         <v>21.0</v>
       </c>
       <c r="I7" t="n" s="320">
-        <v>1.4068555488617074</v>
+        <v>1.4069388362876667</v>
       </c>
       <c r="J7" t="n" s="321">
-        <v>0.5921424517791339</v>
+        <v>0.5921593507390243</v>
       </c>
       <c r="K7" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="8">
@@ -6801,7 +6801,7 @@
         <v>4.0</v>
       </c>
       <c r="E8" t="n" s="316">
-        <v>7.0</v>
+        <v>10176.0</v>
       </c>
       <c r="F8" t="n" s="317">
         <v>3.0</v>
@@ -6813,13 +6813,13 @@
         <v>21.0</v>
       </c>
       <c r="I8" t="n" s="320">
-        <v>-0.3083502803245238</v>
+        <v>-0.3083347606979422</v>
       </c>
       <c r="J8" t="n" s="321">
-        <v>0.6213236161448475</v>
+        <v>0.6213293786972396</v>
       </c>
       <c r="K8" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="9">
@@ -6836,7 +6836,7 @@
         <v>5.0</v>
       </c>
       <c r="E9" t="n" s="316">
-        <v>8.0</v>
+        <v>10179.0</v>
       </c>
       <c r="F9" t="n" s="317">
         <v>3.0</v>
@@ -6848,13 +6848,13 @@
         <v>21.0</v>
       </c>
       <c r="I9" t="n" s="320">
-        <v>-0.3083502803245238</v>
+        <v>-0.3083347606979422</v>
       </c>
       <c r="J9" t="n" s="321">
-        <v>0.6213236161448475</v>
+        <v>0.6213293786972396</v>
       </c>
       <c r="K9" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="10">
@@ -6871,7 +6871,7 @@
         <v>3.0</v>
       </c>
       <c r="E10" t="n" s="316">
-        <v>9.0</v>
+        <v>10181.0</v>
       </c>
       <c r="F10" t="n" s="317">
         <v>3.0</v>
@@ -6883,13 +6883,13 @@
         <v>21.0</v>
       </c>
       <c r="I10" t="n" s="320">
-        <v>-2.5689649132744563</v>
+        <v>-2.5689137604733703</v>
       </c>
       <c r="J10" t="n" s="321">
-        <v>0.6653340940395589</v>
+        <v>0.6653204744563361</v>
       </c>
       <c r="K10" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="11">
@@ -6906,7 +6906,7 @@
         <v>4.0</v>
       </c>
       <c r="E11" t="n" s="316">
-        <v>10.0</v>
+        <v>10183.0</v>
       </c>
       <c r="F11" t="n" s="317">
         <v>3.0</v>
@@ -6918,13 +6918,13 @@
         <v>21.0</v>
       </c>
       <c r="I11" t="n" s="320">
-        <v>-1.654710263546636</v>
+        <v>-1.654692903760028</v>
       </c>
       <c r="J11" t="n" s="321">
-        <v>0.5519620854498127</v>
+        <v>0.5519564059047485</v>
       </c>
       <c r="K11" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="12">
@@ -6941,7 +6941,7 @@
         <v>4.0</v>
       </c>
       <c r="E12" t="n" s="316">
-        <v>11.0</v>
+        <v>10184.0</v>
       </c>
       <c r="F12" t="n" s="317">
         <v>3.0</v>
@@ -6953,13 +6953,13 @@
         <v>21.0</v>
       </c>
       <c r="I12" t="n" s="320">
-        <v>0.4778716960601688</v>
+        <v>0.47790800192819194</v>
       </c>
       <c r="J12" t="n" s="321">
-        <v>0.5901151141384104</v>
+        <v>0.5901256601662949</v>
       </c>
       <c r="K12" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="13">
@@ -6976,7 +6976,7 @@
         <v>5.0</v>
       </c>
       <c r="E13" t="n" s="316">
-        <v>12.0</v>
+        <v>10185.0</v>
       </c>
       <c r="F13" t="n" s="317">
         <v>3.0</v>
@@ -6988,13 +6988,13 @@
         <v>21.0</v>
       </c>
       <c r="I13" t="n" s="320">
-        <v>0.4778716960601688</v>
+        <v>0.47790800192819194</v>
       </c>
       <c r="J13" t="n" s="321">
-        <v>0.5901151141384104</v>
+        <v>0.5901256601662949</v>
       </c>
       <c r="K13" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="14">
@@ -7011,7 +7011,7 @@
         <v>5.0</v>
       </c>
       <c r="E14" t="n" s="316">
-        <v>13.0</v>
+        <v>10186.0</v>
       </c>
       <c r="F14" t="n" s="317">
         <v>3.0</v>
@@ -7023,13 +7023,13 @@
         <v>21.0</v>
       </c>
       <c r="I14" t="n" s="320">
-        <v>2.1445039024106305</v>
+        <v>2.1446451052077875</v>
       </c>
       <c r="J14" t="n" s="321">
-        <v>0.71017650646197</v>
+        <v>0.7102017626230553</v>
       </c>
       <c r="K14" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="15">
@@ -7046,7 +7046,7 @@
         <v>3.0</v>
       </c>
       <c r="E15" t="n" s="316">
-        <v>14.0</v>
+        <v>10188.0</v>
       </c>
       <c r="F15" t="n" s="317">
         <v>3.0</v>
@@ -7058,13 +7058,13 @@
         <v>21.0</v>
       </c>
       <c r="I15" t="n" s="320">
-        <v>-1.3776916669075345</v>
+        <v>-1.3776801175152902</v>
       </c>
       <c r="J15" t="n" s="321">
-        <v>0.5568137960215481</v>
+        <v>0.5568100328590161</v>
       </c>
       <c r="K15" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="16">
@@ -7081,7 +7081,7 @@
         <v>3.0</v>
       </c>
       <c r="E16" t="n" s="316">
-        <v>15.0</v>
+        <v>10189.0</v>
       </c>
       <c r="F16" t="n" s="317">
         <v>3.0</v>
@@ -7093,13 +7093,13 @@
         <v>21.0</v>
       </c>
       <c r="I16" t="n" s="320">
-        <v>-1.654710263546636</v>
+        <v>-1.654692903760028</v>
       </c>
       <c r="J16" t="n" s="321">
-        <v>0.5519620854498127</v>
+        <v>0.5519564059047485</v>
       </c>
       <c r="K16" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="17">
@@ -7116,7 +7116,7 @@
         <v>4.0</v>
       </c>
       <c r="E17" t="n" s="316">
-        <v>16.0</v>
+        <v>10190.0</v>
       </c>
       <c r="F17" t="n" s="317">
         <v>3.0</v>
@@ -7128,13 +7128,13 @@
         <v>21.0</v>
       </c>
       <c r="I17" t="n" s="320">
-        <v>-0.7241317322845691</v>
+        <v>-0.7241225224179593</v>
       </c>
       <c r="J17" t="n" s="321">
-        <v>0.6029882734123966</v>
+        <v>0.6029902668317662</v>
       </c>
       <c r="K17" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="18">
@@ -7151,7 +7151,7 @@
         <v>5.0</v>
       </c>
       <c r="E18" t="n" s="316">
-        <v>17.0</v>
+        <v>10191.0</v>
       </c>
       <c r="F18" t="n" s="317">
         <v>3.0</v>
@@ -7163,13 +7163,13 @@
         <v>21.0</v>
       </c>
       <c r="I18" t="n" s="320">
-        <v>0.1123405014108056</v>
+        <v>0.11236566261806137</v>
       </c>
       <c r="J18" t="n" s="321">
-        <v>0.6113269932223514</v>
+        <v>0.6113355550159763</v>
       </c>
       <c r="K18" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="19">
@@ -7186,7 +7186,7 @@
         <v>7.0</v>
       </c>
       <c r="E19" t="n" s="316">
-        <v>18.0</v>
+        <v>10192.0</v>
       </c>
       <c r="F19" t="n" s="317">
         <v>3.0</v>
@@ -7198,13 +7198,13 @@
         <v>21.0</v>
       </c>
       <c r="I19" t="n" s="320">
-        <v>2.712557479301047</v>
+        <v>2.7127462025652305</v>
       </c>
       <c r="J19" t="n" s="321">
-        <v>0.8800907293400758</v>
+        <v>0.8801235436817648</v>
       </c>
       <c r="K19" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="20">
@@ -7221,7 +7221,7 @@
         <v>1.0</v>
       </c>
       <c r="E20" t="n" s="316">
-        <v>19.0</v>
+        <v>10193.0</v>
       </c>
       <c r="F20" t="n" s="317">
         <v>3.0</v>
@@ -7233,13 +7233,13 @@
         <v>21.0</v>
       </c>
       <c r="I20" t="n" s="320">
-        <v>-3.051650463945667</v>
+        <v>-3.0515754557980417</v>
       </c>
       <c r="J20" t="n" s="321">
-        <v>0.8177768177109628</v>
+        <v>0.8177544396486145</v>
       </c>
       <c r="K20" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="21">
@@ -7256,7 +7256,7 @@
         <v>2.0</v>
       </c>
       <c r="E21" t="n" s="316">
-        <v>20.0</v>
+        <v>10197.0</v>
       </c>
       <c r="F21" t="n" s="317">
         <v>3.0</v>
@@ -7268,13 +7268,13 @@
         <v>21.0</v>
       </c>
       <c r="I21" t="n" s="320">
-        <v>-1.0761826320723937</v>
+        <v>-1.07617426302759</v>
       </c>
       <c r="J21" t="n" s="321">
-        <v>0.5754702551283316</v>
+        <v>0.575468914858188</v>
       </c>
       <c r="K21" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="22">
@@ -7291,7 +7291,7 @@
         <v>6.0</v>
       </c>
       <c r="E22" t="n" s="316">
-        <v>21.0</v>
+        <v>10198.0</v>
       </c>
       <c r="F22" t="n" s="317">
         <v>3.0</v>
@@ -7303,13 +7303,13 @@
         <v>21.0</v>
       </c>
       <c r="I22" t="n" s="320">
-        <v>2.712557479301047</v>
+        <v>2.7127462025652305</v>
       </c>
       <c r="J22" t="n" s="321">
-        <v>0.8800907293400758</v>
+        <v>0.8801235436817648</v>
       </c>
       <c r="K22" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="23">
@@ -7326,7 +7326,7 @@
         <v>4.0</v>
       </c>
       <c r="E23" t="n" s="316">
-        <v>22.0</v>
+        <v>10199.0</v>
       </c>
       <c r="F23" t="n" s="317">
         <v>3.0</v>
@@ -7338,13 +7338,13 @@
         <v>21.0</v>
       </c>
       <c r="I23" t="n" s="320">
-        <v>0.4778716960601688</v>
+        <v>0.47790800192819194</v>
       </c>
       <c r="J23" t="n" s="321">
-        <v>0.5901151141384104</v>
+        <v>0.5901256601662949</v>
       </c>
       <c r="K23" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="24">
@@ -7361,7 +7361,7 @@
         <v>7.0</v>
       </c>
       <c r="E24" t="n" s="316">
-        <v>23.0</v>
+        <v>10200.0</v>
       </c>
       <c r="F24" t="n" s="317">
         <v>3.0</v>
@@ -7373,13 +7373,13 @@
         <v>21.0</v>
       </c>
       <c r="I24" t="n" s="320">
-        <v>1.741129502608087</v>
+        <v>1.7412372451517069</v>
       </c>
       <c r="J24" t="n" s="321">
-        <v>0.6315422895395891</v>
+        <v>0.6315626321662685</v>
       </c>
       <c r="K24" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="25">
@@ -7396,7 +7396,7 @@
         <v>6.0</v>
       </c>
       <c r="E25" t="n" s="316">
-        <v>24.0</v>
+        <v>10201.0</v>
       </c>
       <c r="F25" t="n" s="317">
         <v>3.0</v>
@@ -7408,13 +7408,13 @@
         <v>21.0</v>
       </c>
       <c r="I25" t="n" s="320">
-        <v>1.4068555488617074</v>
+        <v>1.4069388362876667</v>
       </c>
       <c r="J25" t="n" s="321">
-        <v>0.5921424517791339</v>
+        <v>0.5921593507390243</v>
       </c>
       <c r="K25" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="26">
@@ -7431,7 +7431,7 @@
         <v>5.0</v>
       </c>
       <c r="E26" t="n" s="316">
-        <v>25.0</v>
+        <v>10202.0</v>
       </c>
       <c r="F26" t="n" s="317">
         <v>3.0</v>
@@ -7443,13 +7443,13 @@
         <v>21.0</v>
       </c>
       <c r="I26" t="n" s="320">
-        <v>0.7990716787907826</v>
+        <v>0.7991208665692479</v>
       </c>
       <c r="J26" t="n" s="321">
-        <v>0.5762591467418597</v>
+        <v>0.5762714875664662</v>
       </c>
       <c r="K26" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="27">
@@ -7466,7 +7466,7 @@
         <v>7.0</v>
       </c>
       <c r="E27" t="n" s="316">
-        <v>26.0</v>
+        <v>10203.0</v>
       </c>
       <c r="F27" t="n" s="317">
         <v>3.0</v>
@@ -7478,13 +7478,13 @@
         <v>21.0</v>
       </c>
       <c r="I27" t="n" s="320">
-        <v>2.1445039024106305</v>
+        <v>2.1446451052077875</v>
       </c>
       <c r="J27" t="n" s="321">
-        <v>0.71017650646197</v>
+        <v>0.7102017626230553</v>
       </c>
       <c r="K27" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="28">
@@ -7501,7 +7501,7 @@
         <v>4.0</v>
       </c>
       <c r="E28" t="n" s="316">
-        <v>27.0</v>
+        <v>10204.0</v>
       </c>
       <c r="F28" t="n" s="317">
         <v>3.0</v>
@@ -7513,13 +7513,13 @@
         <v>21.0</v>
       </c>
       <c r="I28" t="n" s="320">
-        <v>-1.9287624567611463</v>
+        <v>-1.9287370583430081</v>
       </c>
       <c r="J28" t="n" s="321">
-        <v>0.5633576197894186</v>
+        <v>0.5633500794390405</v>
       </c>
       <c r="K28" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="29">
@@ -7536,7 +7536,7 @@
         <v>6.0</v>
       </c>
       <c r="E29" t="n" s="316">
-        <v>28.0</v>
+        <v>10206.0</v>
       </c>
       <c r="F29" t="n" s="317">
         <v>3.0</v>
@@ -7548,13 +7548,13 @@
         <v>21.0</v>
       </c>
       <c r="I29" t="n" s="320">
-        <v>1.1012141280806433</v>
+        <v>1.1012785782552967</v>
       </c>
       <c r="J29" t="n" s="321">
-        <v>0.5758179855208833</v>
+        <v>0.5758323386581856</v>
       </c>
       <c r="K29" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="30">
@@ -7571,7 +7571,7 @@
         <v>3.0</v>
       </c>
       <c r="E30" t="n" s="316">
-        <v>29.0</v>
+        <v>10208.0</v>
       </c>
       <c r="F30" t="n" s="317">
         <v>3.0</v>
@@ -7583,13 +7583,13 @@
         <v>21.0</v>
       </c>
       <c r="I30" t="n" s="320">
-        <v>0.1123405014108056</v>
+        <v>0.11236566261806137</v>
       </c>
       <c r="J30" t="n" s="321">
-        <v>0.6113269932223514</v>
+        <v>0.6113355550159763</v>
       </c>
       <c r="K30" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="31">
@@ -7606,7 +7606,7 @@
         <v>3.0</v>
       </c>
       <c r="E31" t="n" s="316">
-        <v>30.0</v>
+        <v>10209.0</v>
       </c>
       <c r="F31" t="n" s="317">
         <v>3.0</v>
@@ -7618,13 +7618,13 @@
         <v>21.0</v>
       </c>
       <c r="I31" t="n" s="320">
-        <v>-1.9287624567611463</v>
+        <v>-1.9287370583430081</v>
       </c>
       <c r="J31" t="n" s="321">
-        <v>0.5633576197894186</v>
+        <v>0.5633500794390405</v>
       </c>
       <c r="K31" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="32">
@@ -7641,7 +7641,7 @@
         <v>1.0</v>
       </c>
       <c r="E32" t="n" s="316">
-        <v>31.0</v>
+        <v>10210.0</v>
       </c>
       <c r="F32" t="n" s="317">
         <v>3.0</v>
@@ -7653,13 +7653,13 @@
         <v>21.0</v>
       </c>
       <c r="I32" t="n" s="320">
-        <v>-4.068320499027348</v>
+        <v>-4.068262636332776</v>
       </c>
       <c r="J32" t="n" s="321">
-        <v>1.3656666155558306</v>
+        <v>1.3656254134593457</v>
       </c>
       <c r="K32" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="33">
@@ -7676,7 +7676,7 @@
         <v>7.0</v>
       </c>
       <c r="E33" t="n" s="316">
-        <v>32.0</v>
+        <v>10213.0</v>
       </c>
       <c r="F33" t="n" s="317">
         <v>3.0</v>
@@ -7688,13 +7688,13 @@
         <v>21.0</v>
       </c>
       <c r="I33" t="n" s="320">
-        <v>1.741129502608087</v>
+        <v>1.7412372451517069</v>
       </c>
       <c r="J33" t="n" s="321">
-        <v>0.6315422895395891</v>
+        <v>0.6315626321662685</v>
       </c>
       <c r="K33" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="34">
@@ -7711,7 +7711,7 @@
         <v>4.0</v>
       </c>
       <c r="E34" t="n" s="316">
-        <v>33.0</v>
+        <v>10214.0</v>
       </c>
       <c r="F34" t="n" s="317">
         <v>3.0</v>
@@ -7723,13 +7723,13 @@
         <v>21.0</v>
       </c>
       <c r="I34" t="n" s="320">
-        <v>-0.7241317322845691</v>
+        <v>-0.7241225224179593</v>
       </c>
       <c r="J34" t="n" s="321">
-        <v>0.6029882734123966</v>
+        <v>0.6029902668317662</v>
       </c>
       <c r="K34" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="35">
@@ -7746,7 +7746,7 @@
         <v>1.0</v>
       </c>
       <c r="E35" t="n" s="316">
-        <v>34.0</v>
+        <v>10215.0</v>
       </c>
       <c r="F35" t="n" s="317">
         <v>3.0</v>
@@ -7758,13 +7758,13 @@
         <v>21.0</v>
       </c>
       <c r="I35" t="n" s="320">
-        <v>-1.9287624567611463</v>
+        <v>-1.9287370583430081</v>
       </c>
       <c r="J35" t="n" s="321">
-        <v>0.5633576197894186</v>
+        <v>0.5633500794390405</v>
       </c>
       <c r="K35" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="36">
@@ -7781,7 +7781,7 @@
         <v>6.0</v>
       </c>
       <c r="E36" t="n" s="316">
-        <v>35.0</v>
+        <v>10216.0</v>
       </c>
       <c r="F36" t="n" s="317">
         <v>3.0</v>
@@ -7793,13 +7793,13 @@
         <v>21.0</v>
       </c>
       <c r="I36" t="n" s="320">
-        <v>1.1012141280806433</v>
+        <v>1.1012785782552967</v>
       </c>
       <c r="J36" t="n" s="321">
-        <v>0.5758179855208833</v>
+        <v>0.5758323386581856</v>
       </c>
       <c r="K36" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="37">
@@ -7816,7 +7816,7 @@
         <v>4.0</v>
       </c>
       <c r="E37" t="n" s="316">
-        <v>36.0</v>
+        <v>10217.0</v>
       </c>
       <c r="F37" t="n" s="317">
         <v>3.0</v>
@@ -7828,13 +7828,13 @@
         <v>21.0</v>
       </c>
       <c r="I37" t="n" s="320">
-        <v>-0.3083502803245238</v>
+        <v>-0.3083347606979422</v>
       </c>
       <c r="J37" t="n" s="321">
-        <v>0.6213236161448475</v>
+        <v>0.6213293786972396</v>
       </c>
       <c r="K37" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="38">
@@ -7851,7 +7851,7 @@
         <v>3.0</v>
       </c>
       <c r="E38" t="n" s="316">
-        <v>37.0</v>
+        <v>10218.0</v>
       </c>
       <c r="F38" t="n" s="317">
         <v>3.0</v>
@@ -7863,13 +7863,13 @@
         <v>21.0</v>
       </c>
       <c r="I38" t="n" s="320">
-        <v>-1.0761826320723937</v>
+        <v>-1.07617426302759</v>
       </c>
       <c r="J38" t="n" s="321">
-        <v>0.5754702551283316</v>
+        <v>0.575468914858188</v>
       </c>
       <c r="K38" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="39">
@@ -7886,7 +7886,7 @@
         <v>1.0</v>
       </c>
       <c r="E39" t="n" s="316">
-        <v>38.0</v>
+        <v>10219.0</v>
       </c>
       <c r="F39" t="n" s="317">
         <v>3.0</v>
@@ -7898,13 +7898,13 @@
         <v>21.0</v>
       </c>
       <c r="I39" t="n" s="320">
-        <v>-4.068320499027348</v>
+        <v>-4.068262636332776</v>
       </c>
       <c r="J39" t="n" s="321">
-        <v>1.3656666155558306</v>
+        <v>1.3656254134593457</v>
       </c>
       <c r="K39" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="40">
@@ -7921,7 +7921,7 @@
         <v>7.0</v>
       </c>
       <c r="E40" t="n" s="316">
-        <v>39.0</v>
+        <v>10220.0</v>
       </c>
       <c r="F40" t="n" s="317">
         <v>3.0</v>
@@ -7933,13 +7933,13 @@
         <v>21.0</v>
       </c>
       <c r="I40" t="n" s="320">
-        <v>1.741129502608087</v>
+        <v>1.7412372451517069</v>
       </c>
       <c r="J40" t="n" s="321">
-        <v>0.6315422895395891</v>
+        <v>0.6315626321662685</v>
       </c>
       <c r="K40" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="41">
@@ -7956,7 +7956,7 @@
         <v>5.0</v>
       </c>
       <c r="E41" t="n" s="316">
-        <v>40.0</v>
+        <v>10221.0</v>
       </c>
       <c r="F41" t="n" s="317">
         <v>3.0</v>
@@ -7968,13 +7968,13 @@
         <v>21.0</v>
       </c>
       <c r="I41" t="n" s="320">
-        <v>-0.3083502803245238</v>
+        <v>-0.3083347606979422</v>
       </c>
       <c r="J41" t="n" s="321">
-        <v>0.6213236161448475</v>
+        <v>0.6213293786972396</v>
       </c>
       <c r="K41" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="42">
@@ -7991,7 +7991,7 @@
         <v>4.0</v>
       </c>
       <c r="E42" t="n" s="316">
-        <v>41.0</v>
+        <v>10223.0</v>
       </c>
       <c r="F42" t="n" s="317">
         <v>3.0</v>
@@ -8003,13 +8003,13 @@
         <v>21.0</v>
       </c>
       <c r="I42" t="n" s="320">
-        <v>0.1123405014108056</v>
+        <v>0.11236566261806137</v>
       </c>
       <c r="J42" t="n" s="321">
-        <v>0.6113269932223514</v>
+        <v>0.6113355550159763</v>
       </c>
       <c r="K42" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="43">
@@ -8026,7 +8026,7 @@
         <v>6.0</v>
       </c>
       <c r="E43" t="n" s="316">
-        <v>42.0</v>
+        <v>10224.0</v>
       </c>
       <c r="F43" t="n" s="317">
         <v>3.0</v>
@@ -8038,13 +8038,13 @@
         <v>21.0</v>
       </c>
       <c r="I43" t="n" s="320">
-        <v>0.7990716787907826</v>
+        <v>0.7991208665692479</v>
       </c>
       <c r="J43" t="n" s="321">
-        <v>0.5762591467418597</v>
+        <v>0.5762714875664662</v>
       </c>
       <c r="K43" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="44">
@@ -8061,7 +8061,7 @@
         <v>3.0</v>
       </c>
       <c r="E44" t="n" s="316">
-        <v>43.0</v>
+        <v>10226.0</v>
       </c>
       <c r="F44" t="n" s="317">
         <v>3.0</v>
@@ -8073,13 +8073,13 @@
         <v>21.0</v>
       </c>
       <c r="I44" t="n" s="320">
-        <v>-1.654710263546636</v>
+        <v>-1.654692903760028</v>
       </c>
       <c r="J44" t="n" s="321">
-        <v>0.5519620854498127</v>
+        <v>0.5519564059047485</v>
       </c>
       <c r="K44" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="45">
@@ -8096,7 +8096,7 @@
         <v>6.0</v>
       </c>
       <c r="E45" t="n" s="316">
-        <v>44.0</v>
+        <v>10227.0</v>
       </c>
       <c r="F45" t="n" s="317">
         <v>3.0</v>
@@ -8108,13 +8108,13 @@
         <v>21.0</v>
       </c>
       <c r="I45" t="n" s="320">
-        <v>1.741129502608087</v>
+        <v>1.7412372451517069</v>
       </c>
       <c r="J45" t="n" s="321">
-        <v>0.6315422895395891</v>
+        <v>0.6315626321662685</v>
       </c>
       <c r="K45" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="46">
@@ -8131,7 +8131,7 @@
         <v>4.0</v>
       </c>
       <c r="E46" t="n" s="316">
-        <v>45.0</v>
+        <v>10228.0</v>
       </c>
       <c r="F46" t="n" s="317">
         <v>3.0</v>
@@ -8143,13 +8143,13 @@
         <v>21.0</v>
       </c>
       <c r="I46" t="n" s="320">
-        <v>-0.3083502803245238</v>
+        <v>-0.3083347606979422</v>
       </c>
       <c r="J46" t="n" s="321">
-        <v>0.6213236161448475</v>
+        <v>0.6213293786972396</v>
       </c>
       <c r="K46" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="47">
@@ -8166,7 +8166,7 @@
         <v>2.0</v>
       </c>
       <c r="E47" t="n" s="316">
-        <v>46.0</v>
+        <v>10230.0</v>
       </c>
       <c r="F47" t="n" s="317">
         <v>3.0</v>
@@ -8178,13 +8178,13 @@
         <v>21.0</v>
       </c>
       <c r="I47" t="n" s="320">
-        <v>-0.3083502803245238</v>
+        <v>-0.3083347606979422</v>
       </c>
       <c r="J47" t="n" s="321">
-        <v>0.6213236161448475</v>
+        <v>0.6213293786972396</v>
       </c>
       <c r="K47" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="48">
@@ -8201,7 +8201,7 @@
         <v>4.0</v>
       </c>
       <c r="E48" t="n" s="316">
-        <v>47.0</v>
+        <v>10231.0</v>
       </c>
       <c r="F48" t="n" s="317">
         <v>3.0</v>
@@ -8213,13 +8213,13 @@
         <v>21.0</v>
       </c>
       <c r="I48" t="n" s="320">
-        <v>1.1012141280806433</v>
+        <v>1.1012785782552967</v>
       </c>
       <c r="J48" t="n" s="321">
-        <v>0.5758179855208833</v>
+        <v>0.5758323386581856</v>
       </c>
       <c r="K48" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="49">
@@ -8236,7 +8236,7 @@
         <v>6.0</v>
       </c>
       <c r="E49" t="n" s="316">
-        <v>48.0</v>
+        <v>10232.0</v>
       </c>
       <c r="F49" t="n" s="317">
         <v>3.0</v>
@@ -8248,13 +8248,13 @@
         <v>21.0</v>
       </c>
       <c r="I49" t="n" s="320">
-        <v>1.4068555488617074</v>
+        <v>1.4069388362876667</v>
       </c>
       <c r="J49" t="n" s="321">
-        <v>0.5921424517791339</v>
+        <v>0.5921593507390243</v>
       </c>
       <c r="K49" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="50">
@@ -8271,7 +8271,7 @@
         <v>2.0</v>
       </c>
       <c r="E50" t="n" s="316">
-        <v>49.0</v>
+        <v>10234.0</v>
       </c>
       <c r="F50" t="n" s="317">
         <v>3.0</v>
@@ -8283,13 +8283,13 @@
         <v>21.0</v>
       </c>
       <c r="I50" t="n" s="320">
-        <v>-2.5689649132744563</v>
+        <v>-2.5689137604733703</v>
       </c>
       <c r="J50" t="n" s="321">
-        <v>0.6653340940395589</v>
+        <v>0.6653204744563361</v>
       </c>
       <c r="K50" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="51">
@@ -8306,7 +8306,7 @@
         <v>6.0</v>
       </c>
       <c r="E51" t="n" s="316">
-        <v>50.0</v>
+        <v>10237.0</v>
       </c>
       <c r="F51" t="n" s="317">
         <v>3.0</v>
@@ -8318,13 +8318,13 @@
         <v>21.0</v>
       </c>
       <c r="I51" t="n" s="320">
-        <v>0.1123405014108056</v>
+        <v>0.11236566261806137</v>
       </c>
       <c r="J51" t="n" s="321">
-        <v>0.6113269932223514</v>
+        <v>0.6113355550159763</v>
       </c>
       <c r="K51" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
     <row r="52">
@@ -8341,7 +8341,7 @@
         <v>5.0</v>
       </c>
       <c r="E52" t="n" s="316">
-        <v>51.0</v>
+        <v>10238.0</v>
       </c>
       <c r="F52" t="n" s="317">
         <v>3.0</v>
@@ -8353,13 +8353,13 @@
         <v>21.0</v>
       </c>
       <c r="I52" t="n" s="320">
-        <v>-1.0761826320723937</v>
+        <v>-1.07617426302759</v>
       </c>
       <c r="J52" t="n" s="321">
-        <v>0.5754702551283316</v>
+        <v>0.575468914858188</v>
       </c>
       <c r="K52" t="n" s="322">
-        <v>0.8369927654647658</v>
+        <v>0.8369966528014179</v>
       </c>
     </row>
   </sheetData>
